--- a/raw_data/20200818_saline/20200818_Sensor1_Test_61.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_61.xlsx
@@ -1,598 +1,1014 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841D9D5A-3E65-45FB-AC21-AD7F15A45DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>54185.986188</v>
+        <v>54185.986188000003</v>
       </c>
       <c r="B2" s="1">
         <v>15.051663</v>
       </c>
       <c r="C2" s="1">
-        <v>899.820000</v>
+        <v>899.82</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.993000</v>
+        <v>-197.99299999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>54196.100418</v>
+        <v>54196.100418000002</v>
       </c>
       <c r="G2" s="1">
-        <v>15.054472</v>
+        <v>15.054472000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>917.000000</v>
+        <v>917</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.566000</v>
+        <v>-167.566</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>54206.784699</v>
+        <v>54206.784699000003</v>
       </c>
       <c r="L2" s="1">
-        <v>15.057440</v>
+        <v>15.05744</v>
       </c>
       <c r="M2" s="1">
-        <v>940.155000</v>
+        <v>940.15499999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.519000</v>
+        <v>-119.51900000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>54216.991405</v>
+        <v>54216.991405000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>15.060275</v>
+        <v>15.060275000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>946.890000</v>
+        <v>946.89</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.369000</v>
+        <v>-103.369</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>54227.258097</v>
+        <v>54227.258096999998</v>
       </c>
       <c r="V2" s="1">
         <v>15.063127</v>
       </c>
       <c r="W2" s="1">
-        <v>953.501000</v>
+        <v>953.50099999999998</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.587800</v>
+        <v>-88.587800000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>54238.003431</v>
+        <v>54238.003430999997</v>
       </c>
       <c r="AA2" s="1">
         <v>15.066112</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.758000</v>
+        <v>960.75800000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.986000</v>
+        <v>-76.986000000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>54248.282485</v>
+        <v>54248.282485000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>15.068967</v>
+        <v>15.068967000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.643000</v>
+        <v>965.64300000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.917700</v>
+        <v>-74.917699999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>54258.719303</v>
+        <v>54258.719302999998</v>
       </c>
       <c r="AK2" s="1">
         <v>15.071866</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.713000</v>
+        <v>972.71299999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.764000</v>
+        <v>-79.763999999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>54269.618424</v>
@@ -601,602 +1017,602 @@
         <v>15.074894</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.874000</v>
+        <v>980.87400000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.426600</v>
+        <v>-91.426599999999993</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>54280.628586</v>
+        <v>54280.628585999999</v>
       </c>
       <c r="AU2" s="1">
         <v>15.077952</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.758000</v>
+        <v>990.75800000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.150000</v>
+        <v>-109.15</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>54292.175947</v>
+        <v>54292.175947000003</v>
       </c>
       <c r="AZ2" s="1">
-        <v>15.081160</v>
+        <v>15.081160000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.119000</v>
+        <v>999.11900000000003</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.832000</v>
+        <v>-124.83199999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>54303.160384</v>
+        <v>54303.160384000003</v>
       </c>
       <c r="BE2" s="1">
         <v>15.084211</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.210000</v>
+        <v>1038.21</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.854000</v>
+        <v>-196.85400000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>54314.067901</v>
+        <v>54314.067901000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>15.087241</v>
+        <v>15.087241000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.630000</v>
+        <v>1105.6300000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.040000</v>
+        <v>-313.04000000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>54325.490429</v>
+        <v>54325.490428999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>15.090414</v>
+        <v>15.090414000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1214.650000</v>
+        <v>1214.6500000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-495.156000</v>
+        <v>-495.15600000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>54335.824912</v>
+        <v>54335.824911999996</v>
       </c>
       <c r="BT2" s="1">
         <v>15.093285</v>
       </c>
       <c r="BU2" s="1">
-        <v>1336.440000</v>
+        <v>1336.44</v>
       </c>
       <c r="BV2" s="1">
-        <v>-694.282000</v>
+        <v>-694.28200000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>54346.488558</v>
+        <v>54346.488557999997</v>
       </c>
       <c r="BY2" s="1">
         <v>15.096247</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1472.720000</v>
+        <v>1472.72</v>
       </c>
       <c r="CA2" s="1">
-        <v>-906.332000</v>
+        <v>-906.33199999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>54357.967780</v>
+        <v>54357.967779999999</v>
       </c>
       <c r="CD2" s="1">
         <v>15.099435</v>
       </c>
       <c r="CE2" s="1">
-        <v>1828.680000</v>
+        <v>1828.68</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1408.450000</v>
+        <v>-1408.45</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>54186.344070</v>
+        <v>54186.344069999999</v>
       </c>
       <c r="B3" s="1">
         <v>15.051762</v>
       </c>
       <c r="C3" s="1">
-        <v>899.727000</v>
+        <v>899.72699999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.950000</v>
+        <v>-197.95</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>54196.490767</v>
+        <v>54196.490767000003</v>
       </c>
       <c r="G3" s="1">
-        <v>15.054581</v>
+        <v>15.054581000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>916.836000</v>
+        <v>916.83600000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.030000</v>
+        <v>-168.03</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>54207.164669</v>
+        <v>54207.164668999998</v>
       </c>
       <c r="L3" s="1">
         <v>15.057546</v>
       </c>
       <c r="M3" s="1">
-        <v>940.203000</v>
+        <v>940.20299999999997</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.395000</v>
+        <v>-119.395</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>54217.408543</v>
+        <v>54217.408542999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>15.060391</v>
+        <v>15.060390999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>946.885000</v>
+        <v>946.88499999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.360000</v>
+        <v>-103.36</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>54227.686113</v>
+        <v>54227.686113000003</v>
       </c>
       <c r="V3" s="1">
-        <v>15.063246</v>
+        <v>15.063245999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>953.570000</v>
+        <v>953.57</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.528600</v>
+        <v>-88.528599999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>54238.111523</v>
       </c>
       <c r="AA3" s="1">
-        <v>15.066142</v>
+        <v>15.066141999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.816000</v>
+        <v>960.81600000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.031200</v>
+        <v>-77.031199999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>54248.662953</v>
+        <v>54248.662952999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>15.069073</v>
+        <v>15.069072999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.507000</v>
+        <v>965.50699999999995</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.049800</v>
+        <v>-75.049800000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>54259.085846</v>
+        <v>54259.085846000002</v>
       </c>
       <c r="AK3" s="1">
         <v>15.071968</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.742000</v>
+        <v>972.74199999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.775900</v>
+        <v>-79.775899999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>54270.019160</v>
+        <v>54270.019160000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>15.075005</v>
+        <v>15.075005000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.874000</v>
+        <v>980.87400000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.431200</v>
+        <v>-91.431200000000004</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>54281.005049</v>
+        <v>54281.005048999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>15.078057</v>
+        <v>15.078056999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.773000</v>
+        <v>990.77300000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.163000</v>
+        <v>-109.163</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>54292.598570</v>
+        <v>54292.598570000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>15.081277</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.102000</v>
+        <v>999.10199999999998</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.821000</v>
+        <v>-124.821</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>54303.524448</v>
+        <v>54303.524447999996</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.084312</v>
+        <v>15.084312000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.200000</v>
+        <v>1038.2</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.865000</v>
+        <v>-196.86500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>54314.484509</v>
+        <v>54314.484509000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>15.087357</v>
+        <v>15.087357000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.670000</v>
+        <v>1105.67</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.012000</v>
+        <v>-313.012</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>54325.915806</v>
+        <v>54325.915805999997</v>
       </c>
       <c r="BO3" s="1">
         <v>15.090532</v>
       </c>
       <c r="BP3" s="1">
-        <v>1214.670000</v>
+        <v>1214.67</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-495.210000</v>
+        <v>-495.21</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>54336.298064</v>
+        <v>54336.298064000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>15.093416</v>
+        <v>15.093415999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1336.320000</v>
+        <v>1336.32</v>
       </c>
       <c r="BV3" s="1">
-        <v>-694.385000</v>
+        <v>-694.38499999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>54347.294404</v>
       </c>
       <c r="BY3" s="1">
-        <v>15.096471</v>
+        <v>15.096470999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1472.600000</v>
+        <v>1472.6</v>
       </c>
       <c r="CA3" s="1">
-        <v>-906.449000</v>
+        <v>-906.44899999999996</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>54358.270835</v>
+        <v>54358.270835000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>15.099520</v>
+        <v>15.09952</v>
       </c>
       <c r="CE3" s="1">
-        <v>1828.330000</v>
+        <v>1828.33</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1409.160000</v>
+        <v>-1409.16</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>54186.679366</v>
+        <v>54186.679365999997</v>
       </c>
       <c r="B4" s="1">
         <v>15.051855</v>
       </c>
       <c r="C4" s="1">
-        <v>899.999000</v>
+        <v>899.99900000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.016000</v>
+        <v>-198.01599999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>54197.148920</v>
+        <v>54197.14892</v>
       </c>
       <c r="G4" s="1">
         <v>15.054764</v>
       </c>
       <c r="H4" s="1">
-        <v>917.502000</v>
+        <v>917.50199999999995</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.672000</v>
+        <v>-167.672</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>54207.577341</v>
+        <v>54207.577340999997</v>
       </c>
       <c r="L4" s="1">
-        <v>15.057660</v>
+        <v>15.05766</v>
       </c>
       <c r="M4" s="1">
-        <v>940.001000</v>
+        <v>940.00099999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.459000</v>
+        <v>-119.459</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>54217.755213</v>
+        <v>54217.755212999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>15.060488</v>
+        <v>15.060487999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>946.877000</v>
+        <v>946.87699999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.415000</v>
+        <v>-103.41500000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>54227.986191</v>
+        <v>54227.986191000004</v>
       </c>
       <c r="V4" s="1">
         <v>15.063329</v>
       </c>
       <c r="W4" s="1">
-        <v>953.546000</v>
+        <v>953.54600000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.536300</v>
+        <v>-88.536299999999997</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>54238.456738</v>
+        <v>54238.456738000001</v>
       </c>
       <c r="AA4" s="1">
         <v>15.066238</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.794000</v>
+        <v>960.79399999999998</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.035800</v>
+        <v>-77.035799999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>54249.008132</v>
+        <v>54249.008132000003</v>
       </c>
       <c r="AF4" s="1">
         <v>15.069169</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.545000</v>
+        <v>965.54499999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.030700</v>
+        <v>-75.030699999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>54259.438005</v>
+        <v>54259.438005000004</v>
       </c>
       <c r="AK4" s="1">
         <v>15.072066</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.738000</v>
+        <v>972.73800000000006</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.771800</v>
+        <v>-79.771799999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>54270.737863</v>
+        <v>54270.737863000002</v>
       </c>
       <c r="AP4" s="1">
         <v>15.075205</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.855000</v>
+        <v>980.85500000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.420900</v>
+        <v>-91.420900000000003</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>54281.731193</v>
       </c>
       <c r="AU4" s="1">
-        <v>15.078259</v>
+        <v>15.078258999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.788000</v>
+        <v>990.78800000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.163000</v>
+        <v>-109.163</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>54292.950729</v>
+        <v>54292.950728999996</v>
       </c>
       <c r="AZ4" s="1">
         <v>15.081375</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.100000</v>
+        <v>999.1</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.819000</v>
+        <v>-124.819</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>54303.886987</v>
+        <v>54303.886986999998</v>
       </c>
       <c r="BE4" s="1">
         <v>15.084413</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.210000</v>
+        <v>1038.21</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.874000</v>
+        <v>-196.874</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>54314.859516</v>
+        <v>54314.859515999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>15.087461</v>
+        <v>15.087460999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.630000</v>
+        <v>1105.6300000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.070000</v>
+        <v>-313.07</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>54326.637485</v>
+        <v>54326.637484999999</v>
       </c>
       <c r="BO4" s="1">
         <v>15.090733</v>
       </c>
       <c r="BP4" s="1">
-        <v>1214.590000</v>
+        <v>1214.5899999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-495.225000</v>
+        <v>-495.22500000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>54336.741984</v>
@@ -1205,285 +1621,285 @@
         <v>15.093539</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.300000</v>
+        <v>1336.3</v>
       </c>
       <c r="BV4" s="1">
-        <v>-694.520000</v>
+        <v>-694.52</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>54347.410929</v>
+        <v>54347.410928999998</v>
       </c>
       <c r="BY4" s="1">
         <v>15.096503</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1472.520000</v>
+        <v>1472.52</v>
       </c>
       <c r="CA4" s="1">
-        <v>-906.382000</v>
+        <v>-906.38199999999995</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>54358.803042</v>
       </c>
       <c r="CD4" s="1">
-        <v>15.099668</v>
+        <v>15.099667999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1828.120000</v>
+        <v>1828.12</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1407.540000</v>
+        <v>-1407.54</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>54187.102470</v>
+        <v>54187.102469999998</v>
       </c>
       <c r="B5" s="1">
         <v>15.051973</v>
       </c>
       <c r="C5" s="1">
-        <v>899.818000</v>
+        <v>899.81799999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.958000</v>
+        <v>-197.958</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>54197.498135</v>
+        <v>54197.498135000002</v>
       </c>
       <c r="G5" s="1">
-        <v>15.054861</v>
+        <v>15.054861000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>917.077000</v>
+        <v>917.077</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.317000</v>
+        <v>-167.31700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>54207.889291</v>
       </c>
       <c r="L5" s="1">
-        <v>15.057747</v>
+        <v>15.057747000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>940.071000</v>
+        <v>940.07100000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.490000</v>
+        <v>-119.49</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>54218.102909</v>
+        <v>54218.102909000001</v>
       </c>
       <c r="Q5" s="1">
         <v>15.060584</v>
       </c>
       <c r="R5" s="1">
-        <v>946.895000</v>
+        <v>946.89499999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.394000</v>
+        <v>-103.39400000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>54228.330448</v>
+        <v>54228.330448000001</v>
       </c>
       <c r="V5" s="1">
-        <v>15.063425</v>
+        <v>15.063425000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>953.485000</v>
+        <v>953.48500000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.541500</v>
+        <v>-88.541499999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>54238.803972</v>
+        <v>54238.803972000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>15.066334</v>
+        <v>15.066333999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.793000</v>
+        <v>960.79300000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.991400</v>
+        <v>-76.991399999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>54249.771006</v>
+        <v>54249.771006000003</v>
       </c>
       <c r="AF5" s="1">
         <v>15.069381</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.400000</v>
+        <v>965.4</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.111800</v>
+        <v>-75.111800000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>54260.131413</v>
+        <v>54260.131413000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>15.072259</v>
+        <v>15.072259000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.753000</v>
+        <v>972.75300000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.794300</v>
+        <v>-79.794300000000007</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>54271.096967</v>
+        <v>54271.096966999998</v>
       </c>
       <c r="AP5" s="1">
         <v>15.075305</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.858000</v>
+        <v>980.85799999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.415700</v>
+        <v>-91.415700000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>54282.121545</v>
+        <v>54282.121545000002</v>
       </c>
       <c r="AU5" s="1">
         <v>15.078367</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.766000</v>
+        <v>990.76599999999996</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.190000</v>
+        <v>-109.19</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>54293.309931</v>
+        <v>54293.309931000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>15.081475</v>
+        <v>15.081474999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.092000</v>
+        <v>999.09199999999998</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.811000</v>
+        <v>-124.81100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>54304.551129</v>
+        <v>54304.551128999999</v>
       </c>
       <c r="BE5" s="1">
         <v>15.084598</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.200000</v>
+        <v>1038.2</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.867000</v>
+        <v>-196.86699999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>54315.547963</v>
+        <v>54315.547962999997</v>
       </c>
       <c r="BJ5" s="1">
         <v>15.087652</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.670000</v>
+        <v>1105.67</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.039000</v>
+        <v>-313.03899999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>54326.750573</v>
+        <v>54326.750572999998</v>
       </c>
       <c r="BO5" s="1">
         <v>15.090764</v>
       </c>
       <c r="BP5" s="1">
-        <v>1214.610000</v>
+        <v>1214.6099999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-495.223000</v>
+        <v>-495.22300000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>54337.106073</v>
+        <v>54337.106073000003</v>
       </c>
       <c r="BT5" s="1">
         <v>15.093641</v>
       </c>
       <c r="BU5" s="1">
-        <v>1336.330000</v>
+        <v>1336.33</v>
       </c>
       <c r="BV5" s="1">
-        <v>-694.590000</v>
+        <v>-694.59</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>54347.851377</v>
+        <v>54347.851376999999</v>
       </c>
       <c r="BY5" s="1">
         <v>15.096625</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1472.730000</v>
+        <v>1472.73</v>
       </c>
       <c r="CA5" s="1">
-        <v>-906.413000</v>
+        <v>-906.41300000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>54359.341234</v>
@@ -1492,195 +1908,195 @@
         <v>15.099817</v>
       </c>
       <c r="CE5" s="1">
-        <v>1827.530000</v>
+        <v>1827.53</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1409.330000</v>
+        <v>-1409.33</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>54187.390133</v>
+        <v>54187.390133000001</v>
       </c>
       <c r="B6" s="1">
-        <v>15.052053</v>
+        <v>15.052053000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>899.828000</v>
+        <v>899.82799999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.824000</v>
+        <v>-197.82400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>54197.845340</v>
+        <v>54197.84534</v>
       </c>
       <c r="G6" s="1">
         <v>15.054957</v>
       </c>
       <c r="H6" s="1">
-        <v>916.969000</v>
+        <v>916.96900000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.260000</v>
+        <v>-167.26</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>54208.234280</v>
+        <v>54208.234279999997</v>
       </c>
       <c r="L6" s="1">
         <v>15.057843</v>
       </c>
       <c r="M6" s="1">
-        <v>940.256000</v>
+        <v>940.25599999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.351000</v>
+        <v>-119.351</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>54218.453612</v>
+        <v>54218.453611999998</v>
       </c>
       <c r="Q6" s="1">
         <v>15.060682</v>
       </c>
       <c r="R6" s="1">
-        <v>946.852000</v>
+        <v>946.85199999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.395000</v>
+        <v>-103.395</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>54228.671664</v>
+        <v>54228.671664000001</v>
       </c>
       <c r="V6" s="1">
-        <v>15.063520</v>
+        <v>15.06352</v>
       </c>
       <c r="W6" s="1">
-        <v>953.452000</v>
+        <v>953.452</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.473800</v>
+        <v>-88.473799999999997</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>54239.504316</v>
+        <v>54239.504315999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>15.066529</v>
+        <v>15.066528999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.762000</v>
+        <v>960.76199999999994</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.986900</v>
+        <v>-76.986900000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>54250.040307</v>
+        <v>54250.040307000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>15.069456</v>
+        <v>15.069456000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.454000</v>
+        <v>965.45399999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.072300</v>
+        <v>-75.072299999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>54260.484564</v>
+        <v>54260.484563999998</v>
       </c>
       <c r="AK6" s="1">
         <v>15.072357</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.728000</v>
+        <v>972.72799999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.749100</v>
+        <v>-79.749099999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>54271.456595</v>
+        <v>54271.456595000003</v>
       </c>
       <c r="AP6" s="1">
         <v>15.075405</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.863000</v>
+        <v>980.86300000000006</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.415800</v>
+        <v>-91.415800000000004</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>54282.485112</v>
+        <v>54282.485112000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>15.078468</v>
+        <v>15.078468000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.788000</v>
+        <v>990.78800000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.155000</v>
+        <v>-109.155</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>54293.976685</v>
+        <v>54293.976685000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>15.081660</v>
+        <v>15.081659999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.097000</v>
+        <v>999.09699999999998</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.841000</v>
+        <v>-124.84099999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>54304.970284</v>
+        <v>54304.970284000003</v>
       </c>
       <c r="BE6" s="1">
         <v>15.084714</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.200000</v>
+        <v>1038.2</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.873000</v>
+        <v>-196.87299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>54315.986891</v>
@@ -1689,105 +2105,105 @@
         <v>15.087774</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.610000</v>
+        <v>1105.6099999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.070000</v>
+        <v>-313.07</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>54327.153856</v>
+        <v>54327.153855999997</v>
       </c>
       <c r="BO6" s="1">
         <v>15.090876</v>
       </c>
       <c r="BP6" s="1">
-        <v>1214.650000</v>
+        <v>1214.6500000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-495.204000</v>
+        <v>-495.20400000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>54337.518224</v>
+        <v>54337.518223999999</v>
       </c>
       <c r="BT6" s="1">
         <v>15.093755</v>
       </c>
       <c r="BU6" s="1">
-        <v>1336.400000</v>
+        <v>1336.4</v>
       </c>
       <c r="BV6" s="1">
-        <v>-694.711000</v>
+        <v>-694.71100000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>54348.309712</v>
+        <v>54348.309712000002</v>
       </c>
       <c r="BY6" s="1">
         <v>15.096753</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1472.700000</v>
+        <v>1472.7</v>
       </c>
       <c r="CA6" s="1">
-        <v>-906.332000</v>
+        <v>-906.33199999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>54359.882833</v>
+        <v>54359.882833000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>15.099967</v>
+        <v>15.099966999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1828.630000</v>
+        <v>1828.63</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1408.070000</v>
+        <v>-1408.07</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>54187.730420</v>
+        <v>54187.73042</v>
       </c>
       <c r="B7" s="1">
         <v>15.052147</v>
       </c>
       <c r="C7" s="1">
-        <v>899.855000</v>
+        <v>899.85500000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.061000</v>
+        <v>-198.06100000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>54198.191031</v>
+        <v>54198.191031000002</v>
       </c>
       <c r="G7" s="1">
-        <v>15.055053</v>
+        <v>15.055052999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>916.710000</v>
+        <v>916.71</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.639000</v>
+        <v>-167.63900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>54208.578233</v>
@@ -1796,300 +2212,300 @@
         <v>15.057938</v>
       </c>
       <c r="M7" s="1">
-        <v>940.134000</v>
+        <v>940.13400000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.291000</v>
+        <v>-119.291</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>54219.148011</v>
+        <v>54219.148010999997</v>
       </c>
       <c r="Q7" s="1">
         <v>15.060874</v>
       </c>
       <c r="R7" s="1">
-        <v>946.836000</v>
+        <v>946.83600000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.397000</v>
+        <v>-103.39700000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>54229.357662</v>
+        <v>54229.357662000002</v>
       </c>
       <c r="V7" s="1">
-        <v>15.063710</v>
+        <v>15.06371</v>
       </c>
       <c r="W7" s="1">
-        <v>953.453000</v>
+        <v>953.45299999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.504000</v>
+        <v>-88.504000000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>54239.850035</v>
+        <v>54239.850035000003</v>
       </c>
       <c r="AA7" s="1">
         <v>15.066625</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.673000</v>
+        <v>960.673</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.980000</v>
+        <v>-76.98</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>54250.383043</v>
+        <v>54250.383043000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>15.069551</v>
+        <v>15.069551000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.329000</v>
+        <v>965.32899999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.082400</v>
+        <v>-75.082400000000007</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>54260.830772</v>
+        <v>54260.830772000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>15.072453</v>
+        <v>15.072452999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.749000</v>
+        <v>972.74900000000002</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.790200</v>
+        <v>-79.790199999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>54272.132149</v>
+        <v>54272.132148999997</v>
       </c>
       <c r="AP7" s="1">
         <v>15.075592</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.865000</v>
+        <v>980.86500000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.410600</v>
+        <v>-91.410600000000002</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>54283.160166</v>
+        <v>54283.160166000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>15.078656</v>
+        <v>15.078656000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.786000</v>
+        <v>990.78599999999994</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.159000</v>
+        <v>-109.15900000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>54294.383143</v>
+        <v>54294.383142999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>15.081773</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.104000</v>
+        <v>999.10400000000004</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.828000</v>
+        <v>-124.828</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>54305.356633</v>
+        <v>54305.356633000003</v>
       </c>
       <c r="BE7" s="1">
         <v>15.084821</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.210000</v>
+        <v>1038.21</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.879000</v>
+        <v>-196.87899999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>54316.360378</v>
+        <v>54316.360377999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>15.087878</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.620000</v>
+        <v>1105.6199999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.074000</v>
+        <v>-313.07400000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>54327.549661</v>
+        <v>54327.549660999997</v>
       </c>
       <c r="BO7" s="1">
-        <v>15.090986</v>
+        <v>15.090985999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1214.620000</v>
+        <v>1214.6199999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-495.204000</v>
+        <v>-495.20400000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>54337.954206</v>
+        <v>54337.954206000002</v>
       </c>
       <c r="BT7" s="1">
         <v>15.093876</v>
       </c>
       <c r="BU7" s="1">
-        <v>1336.490000</v>
+        <v>1336.49</v>
       </c>
       <c r="BV7" s="1">
-        <v>-694.831000</v>
+        <v>-694.83100000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>54348.754593</v>
+        <v>54348.754592999998</v>
       </c>
       <c r="BY7" s="1">
         <v>15.096876</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1472.650000</v>
+        <v>1472.65</v>
       </c>
       <c r="CA7" s="1">
-        <v>-906.353000</v>
+        <v>-906.35299999999995</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>54360.425492</v>
+        <v>54360.425492000002</v>
       </c>
       <c r="CD7" s="1">
         <v>15.100118</v>
       </c>
       <c r="CE7" s="1">
-        <v>1827.010000</v>
+        <v>1827.01</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1408.470000</v>
+        <v>-1408.47</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>54188.070149</v>
+        <v>54188.070148999999</v>
       </c>
       <c r="B8" s="1">
         <v>15.052242</v>
       </c>
       <c r="C8" s="1">
-        <v>899.810000</v>
+        <v>899.81</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.999000</v>
+        <v>-197.999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>54198.877013</v>
+        <v>54198.877012999998</v>
       </c>
       <c r="G8" s="1">
         <v>15.055244</v>
       </c>
       <c r="H8" s="1">
-        <v>917.552000</v>
+        <v>917.55200000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.689000</v>
+        <v>-167.68899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>54209.270649</v>
+        <v>54209.270648999998</v>
       </c>
       <c r="L8" s="1">
-        <v>15.058131</v>
+        <v>15.058130999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>940.254000</v>
+        <v>940.25400000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.330000</v>
+        <v>-119.33</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>54219.500139</v>
+        <v>54219.500139000003</v>
       </c>
       <c r="Q8" s="1">
         <v>15.060972</v>
       </c>
       <c r="R8" s="1">
-        <v>946.860000</v>
+        <v>946.86</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.385000</v>
+        <v>-103.38500000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>54229.702350</v>
+        <v>54229.70235</v>
       </c>
       <c r="V8" s="1">
         <v>15.063806</v>
       </c>
       <c r="W8" s="1">
-        <v>953.440000</v>
+        <v>953.44</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.561100</v>
+        <v>-88.561099999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>54240.201663</v>
@@ -2098,255 +2514,255 @@
         <v>15.066723</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.706000</v>
+        <v>960.70600000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.079100</v>
+        <v>-77.079099999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>54251.038257</v>
       </c>
       <c r="AF8" s="1">
-        <v>15.069733</v>
+        <v>15.069732999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.414000</v>
+        <v>965.41399999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.027000</v>
+        <v>-75.027000000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>54261.488467</v>
+        <v>54261.488467000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>15.072636</v>
+        <v>15.072635999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.725000</v>
+        <v>972.72500000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.759800</v>
+        <v>-79.759799999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>54272.566644</v>
+        <v>54272.566643999999</v>
       </c>
       <c r="AP8" s="1">
         <v>15.075713</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.833000</v>
+        <v>980.83299999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.404900</v>
+        <v>-91.404899999999998</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>54283.612517</v>
+        <v>54283.612517000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>15.078781</v>
+        <v>15.078780999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.786000</v>
+        <v>990.78599999999994</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.183000</v>
+        <v>-109.18300000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>54294.766062</v>
+        <v>54294.766062000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>15.081879</v>
+        <v>15.081879000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.098000</v>
+        <v>999.09799999999996</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.825000</v>
+        <v>-124.825</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>54305.717721</v>
+        <v>54305.717721000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>15.084922</v>
+        <v>15.084922000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.200000</v>
+        <v>1038.2</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.862000</v>
+        <v>-196.86199999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>54316.736843</v>
+        <v>54316.736842999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>15.087982</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.640000</v>
+        <v>1105.6400000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.054000</v>
+        <v>-313.05399999999997</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>54327.970235</v>
+        <v>54327.970235000001</v>
       </c>
       <c r="BO8" s="1">
         <v>15.091103</v>
       </c>
       <c r="BP8" s="1">
-        <v>1214.640000</v>
+        <v>1214.6400000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-495.227000</v>
+        <v>-495.22699999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>54338.348031</v>
+        <v>54338.348031000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>15.093986</v>
+        <v>15.093985999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1336.630000</v>
+        <v>1336.63</v>
       </c>
       <c r="BV8" s="1">
-        <v>-694.855000</v>
+        <v>-694.85500000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>54349.210446</v>
+        <v>54349.210445999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>15.097003</v>
+        <v>15.097003000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1472.620000</v>
+        <v>1472.62</v>
       </c>
       <c r="CA8" s="1">
-        <v>-906.480000</v>
+        <v>-906.48</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>54360.960145</v>
+        <v>54360.960144999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>15.100267</v>
+        <v>15.100267000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1828.440000</v>
+        <v>1828.44</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1408.990000</v>
+        <v>-1408.99</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>54188.755619</v>
+        <v>54188.755619000003</v>
       </c>
       <c r="B9" s="1">
         <v>15.052432</v>
       </c>
       <c r="C9" s="1">
-        <v>899.837000</v>
+        <v>899.83699999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.056000</v>
+        <v>-198.05600000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>54199.225669</v>
+        <v>54199.225668999999</v>
       </c>
       <c r="G9" s="1">
-        <v>15.055340</v>
+        <v>15.055339999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>917.177000</v>
+        <v>917.17700000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.660000</v>
+        <v>-167.66</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>54209.616392</v>
+        <v>54209.616392000004</v>
       </c>
       <c r="L9" s="1">
         <v>15.058227</v>
       </c>
       <c r="M9" s="1">
-        <v>940.009000</v>
+        <v>940.00900000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.373000</v>
+        <v>-119.373</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>54219.849825</v>
+        <v>54219.849824999998</v>
       </c>
       <c r="Q9" s="1">
         <v>15.061069</v>
       </c>
       <c r="R9" s="1">
-        <v>946.857000</v>
+        <v>946.85699999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.397000</v>
+        <v>-103.39700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>54230.049550</v>
+        <v>54230.049550000003</v>
       </c>
       <c r="V9" s="1">
         <v>15.063903</v>
       </c>
       <c r="W9" s="1">
-        <v>953.515000</v>
+        <v>953.51499999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.607700</v>
+        <v>-88.607699999999994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>54240.863824</v>
@@ -2355,88 +2771,88 @@
         <v>15.066907</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.706000</v>
+        <v>960.70600000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.102300</v>
+        <v>-77.1023</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>54251.413730</v>
+        <v>54251.41373</v>
       </c>
       <c r="AF9" s="1">
         <v>15.069837</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.397000</v>
+        <v>965.39700000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.818100</v>
+        <v>-74.818100000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>54261.876375</v>
       </c>
       <c r="AK9" s="1">
-        <v>15.072743</v>
+        <v>15.072742999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.736000</v>
+        <v>972.73599999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.787900</v>
+        <v>-79.787899999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>54272.927701</v>
+        <v>54272.927701000001</v>
       </c>
       <c r="AP9" s="1">
         <v>15.075813</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.863000</v>
+        <v>980.86300000000006</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.425400</v>
+        <v>-91.425399999999996</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>54283.975589</v>
+        <v>54283.975589000001</v>
       </c>
       <c r="AU9" s="1">
         <v>15.078882</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.782000</v>
+        <v>990.78200000000004</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.148000</v>
+        <v>-109.148</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>54295.127144</v>
+        <v>54295.127143999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>15.081980</v>
+        <v>15.08198</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.098000</v>
+        <v>999.09799999999996</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.839000</v>
+        <v>-124.839</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>54306.131879</v>
@@ -2445,210 +2861,210 @@
         <v>15.085037</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.210000</v>
+        <v>1038.21</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.852000</v>
+        <v>-196.852</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>54317.169849</v>
+        <v>54317.169848999998</v>
       </c>
       <c r="BJ9" s="1">
         <v>15.088103</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.620000</v>
+        <v>1105.6199999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.040000</v>
+        <v>-313.04000000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>54328.367558</v>
+        <v>54328.367557999998</v>
       </c>
       <c r="BO9" s="1">
         <v>15.091213</v>
       </c>
       <c r="BP9" s="1">
-        <v>1214.630000</v>
+        <v>1214.6300000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-495.179000</v>
+        <v>-495.17899999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>54338.761694</v>
+        <v>54338.761694000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.094100</v>
+        <v>15.094099999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1336.700000</v>
+        <v>1336.7</v>
       </c>
       <c r="BV9" s="1">
-        <v>-694.780000</v>
+        <v>-694.78</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>54349.660782</v>
+        <v>54349.660781999999</v>
       </c>
       <c r="BY9" s="1">
         <v>15.097128</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1472.630000</v>
+        <v>1472.63</v>
       </c>
       <c r="CA9" s="1">
-        <v>-906.326000</v>
+        <v>-906.32600000000002</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>54361.502767</v>
+        <v>54361.502766999998</v>
       </c>
       <c r="CD9" s="1">
         <v>15.100417</v>
       </c>
       <c r="CE9" s="1">
-        <v>1827.620000</v>
+        <v>1827.62</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1407.520000</v>
+        <v>-1407.52</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>54189.096901</v>
+        <v>54189.096900999997</v>
       </c>
       <c r="B10" s="1">
         <v>15.052527</v>
       </c>
       <c r="C10" s="1">
-        <v>899.770000</v>
+        <v>899.77</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.884000</v>
+        <v>-197.88399999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>54199.568413</v>
+        <v>54199.568413000001</v>
       </c>
       <c r="G10" s="1">
         <v>15.055436</v>
       </c>
       <c r="H10" s="1">
-        <v>917.203000</v>
+        <v>917.20299999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.598000</v>
+        <v>-167.59800000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>54209.961116</v>
+        <v>54209.961115999999</v>
       </c>
       <c r="L10" s="1">
         <v>15.058323</v>
       </c>
       <c r="M10" s="1">
-        <v>940.155000</v>
+        <v>940.15499999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.462000</v>
+        <v>-119.462</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>54220.519417</v>
+        <v>54220.519417000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>15.061255</v>
+        <v>15.061254999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>946.892000</v>
+        <v>946.89200000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.449000</v>
+        <v>-103.449</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>54230.695380</v>
+        <v>54230.695379999997</v>
       </c>
       <c r="V10" s="1">
-        <v>15.064082</v>
+        <v>15.064082000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>953.682000</v>
+        <v>953.68200000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.465300</v>
+        <v>-88.465299999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>54241.246734</v>
       </c>
       <c r="AA10" s="1">
-        <v>15.067013</v>
+        <v>15.067012999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.686000</v>
+        <v>960.68600000000004</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.061300</v>
+        <v>-77.061300000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>54251.756496</v>
+        <v>54251.756496000002</v>
       </c>
       <c r="AF10" s="1">
         <v>15.069932</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.457000</v>
+        <v>965.45699999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.081800</v>
+        <v>-75.081800000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>54262.226049</v>
+        <v>54262.226048999997</v>
       </c>
       <c r="AK10" s="1">
         <v>15.072841</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.716000</v>
+        <v>972.71600000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.789700</v>
+        <v>-79.789699999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>54273.286838</v>
@@ -2657,360 +3073,360 @@
         <v>15.075913</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.854000</v>
+        <v>980.85400000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.408400</v>
+        <v>-91.4084</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>54284.344117</v>
+        <v>54284.344117000001</v>
       </c>
       <c r="AU10" s="1">
         <v>15.078984</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.773000</v>
+        <v>990.77300000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.164000</v>
+        <v>-109.164</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>54295.545270</v>
+        <v>54295.545270000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>15.082096</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.106000</v>
+        <v>999.10599999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.827000</v>
+        <v>-124.827</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>54306.439431</v>
+        <v>54306.439430999999</v>
       </c>
       <c r="BE10" s="1">
         <v>15.085122</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.190000</v>
+        <v>1038.19</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.865000</v>
+        <v>-196.86500000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>54317.501178</v>
+        <v>54317.501177999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>15.088195</v>
+        <v>15.088195000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.650000</v>
+        <v>1105.6500000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.075000</v>
+        <v>-313.07499999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>54328.786650</v>
+        <v>54328.786650000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>15.091330</v>
+        <v>15.091329999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1214.610000</v>
+        <v>1214.6099999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-495.181000</v>
+        <v>-495.18099999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>54339.177372</v>
+        <v>54339.177371999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>15.094216</v>
+        <v>15.094215999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1336.800000</v>
+        <v>1336.8</v>
       </c>
       <c r="BV10" s="1">
-        <v>-694.645000</v>
+        <v>-694.64499999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>54350.116606</v>
+        <v>54350.116606000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>15.097255</v>
+        <v>15.097255000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1472.690000</v>
+        <v>1472.69</v>
       </c>
       <c r="CA10" s="1">
-        <v>-906.393000</v>
+        <v>-906.39300000000003</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>54362.039935</v>
+        <v>54362.039935000001</v>
       </c>
       <c r="CD10" s="1">
         <v>15.100567</v>
       </c>
       <c r="CE10" s="1">
-        <v>1828.070000</v>
+        <v>1828.07</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1409.570000</v>
+        <v>-1409.57</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>54189.438642</v>
+        <v>54189.438642000001</v>
       </c>
       <c r="B11" s="1">
         <v>15.052622</v>
       </c>
       <c r="C11" s="1">
-        <v>899.834000</v>
+        <v>899.83399999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.942000</v>
+        <v>-197.94200000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>54200.240019</v>
+        <v>54200.240018999997</v>
       </c>
       <c r="G11" s="1">
         <v>15.055622</v>
       </c>
       <c r="H11" s="1">
-        <v>917.178000</v>
+        <v>917.178</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.780000</v>
+        <v>-167.78</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>54210.634150</v>
+        <v>54210.634149999998</v>
       </c>
       <c r="L11" s="1">
-        <v>15.058509</v>
+        <v>15.058509000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>940.143000</v>
+        <v>940.14300000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.435000</v>
+        <v>-119.435</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>54220.892910</v>
+        <v>54220.892910000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>15.061359</v>
+        <v>15.061358999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>946.819000</v>
+        <v>946.81899999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.454000</v>
+        <v>-103.45399999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>54231.078287</v>
+        <v>54231.078286999997</v>
       </c>
       <c r="V11" s="1">
         <v>15.064188</v>
       </c>
       <c r="W11" s="1">
-        <v>953.479000</v>
+        <v>953.47900000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.634500</v>
+        <v>-88.634500000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>54241.592973</v>
+        <v>54241.592972999999</v>
       </c>
       <c r="AA11" s="1">
         <v>15.067109</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.736000</v>
+        <v>960.73599999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.096000</v>
+        <v>-77.096000000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>54252.099697</v>
+        <v>54252.099696999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>15.070028</v>
+        <v>15.070028000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.458000</v>
+        <v>965.45799999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.007800</v>
+        <v>-75.007800000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>54262.573746</v>
+        <v>54262.573746000002</v>
       </c>
       <c r="AK11" s="1">
         <v>15.072937</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.755000</v>
+        <v>972.755</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.780300</v>
+        <v>-79.780299999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>54273.702947</v>
+        <v>54273.702946999998</v>
       </c>
       <c r="AP11" s="1">
         <v>15.076029</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.858000</v>
+        <v>980.85799999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.417700</v>
+        <v>-91.417699999999996</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>54285.070786</v>
+        <v>54285.070785999997</v>
       </c>
       <c r="AU11" s="1">
         <v>15.079186</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.787000</v>
+        <v>990.78700000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.157000</v>
+        <v>-109.157</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>54295.844855</v>
+        <v>54295.844855000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>15.082179</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.098000</v>
+        <v>999.09799999999996</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.824000</v>
+        <v>-124.824</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>54306.800514</v>
+        <v>54306.800514000002</v>
       </c>
       <c r="BE11" s="1">
         <v>15.085222</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.190000</v>
+        <v>1038.19</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.874000</v>
+        <v>-196.874</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>54317.889545</v>
+        <v>54317.889544999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>15.088303</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.640000</v>
+        <v>1105.6400000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.040000</v>
+        <v>-313.04000000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>54329.185469</v>
+        <v>54329.185468999996</v>
       </c>
       <c r="BO11" s="1">
-        <v>15.091440</v>
+        <v>15.09144</v>
       </c>
       <c r="BP11" s="1">
-        <v>1214.610000</v>
+        <v>1214.6099999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-495.225000</v>
+        <v>-495.22500000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>54339.614820</v>
+        <v>54339.614820000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>15.094337</v>
+        <v>15.094336999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1336.930000</v>
+        <v>1336.93</v>
       </c>
       <c r="BV11" s="1">
-        <v>-694.594000</v>
+        <v>-694.59400000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>54350.565981</v>
@@ -3019,45 +3435,45 @@
         <v>15.097379</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1472.620000</v>
+        <v>1472.62</v>
       </c>
       <c r="CA11" s="1">
-        <v>-906.492000</v>
+        <v>-906.49199999999996</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>54362.583087</v>
+        <v>54362.583086999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>15.100718</v>
+        <v>15.100718000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1828.080000</v>
+        <v>1828.08</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1407.730000</v>
+        <v>-1407.73</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>54190.091382</v>
+        <v>54190.091381999999</v>
       </c>
       <c r="B12" s="1">
-        <v>15.052803</v>
+        <v>15.052803000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>899.805000</v>
+        <v>899.80499999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.999000</v>
+        <v>-197.999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>54200.601572</v>
@@ -3066,285 +3482,285 @@
         <v>15.055723</v>
       </c>
       <c r="H12" s="1">
-        <v>917.195000</v>
+        <v>917.19500000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.658000</v>
+        <v>-167.65799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>54211.001189</v>
+        <v>54211.001189000002</v>
       </c>
       <c r="L12" s="1">
-        <v>15.058611</v>
+        <v>15.058611000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>940.061000</v>
+        <v>940.06100000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.507000</v>
+        <v>-119.50700000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>54221.241593</v>
+        <v>54221.241592999999</v>
       </c>
       <c r="Q12" s="1">
         <v>15.061456</v>
       </c>
       <c r="R12" s="1">
-        <v>946.806000</v>
+        <v>946.80600000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.410000</v>
+        <v>-103.41</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>54231.422507</v>
+        <v>54231.422507000003</v>
       </c>
       <c r="V12" s="1">
-        <v>15.064284</v>
+        <v>15.064284000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>953.570000</v>
+        <v>953.57</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.502300</v>
+        <v>-88.502300000000005</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>54241.943149</v>
+        <v>54241.943148999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>15.067206</v>
+        <v>15.067206000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.780000</v>
+        <v>960.78</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.055500</v>
+        <v>-77.055499999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>54252.524272</v>
+        <v>54252.524272000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>15.070146</v>
+        <v>15.070145999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.430000</v>
+        <v>965.43</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.018900</v>
+        <v>-75.018900000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>54262.995976</v>
+        <v>54262.995975999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>15.073054</v>
+        <v>15.073054000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.747000</v>
+        <v>972.74699999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.788500</v>
+        <v>-79.788499999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>54274.007522</v>
       </c>
       <c r="AP12" s="1">
-        <v>15.076113</v>
+        <v>15.076112999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.855000</v>
+        <v>980.85500000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.396600</v>
+        <v>-91.396600000000007</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>54285.457635</v>
+        <v>54285.457634999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>15.079294</v>
+        <v>15.079294000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.785000</v>
+        <v>990.78499999999997</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.175000</v>
+        <v>-109.175</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>54296.202471</v>
+        <v>54296.202470999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>15.082278</v>
+        <v>15.082278000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.102000</v>
+        <v>999.10199999999998</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.823000</v>
+        <v>-124.82299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>54307.163590</v>
+        <v>54307.163589999996</v>
       </c>
       <c r="BE12" s="1">
-        <v>15.085323</v>
+        <v>15.085323000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.190000</v>
+        <v>1038.19</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.860000</v>
+        <v>-196.86</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>54318.259561</v>
+        <v>54318.259560999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>15.088405</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.630000</v>
+        <v>1105.6300000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.076000</v>
+        <v>-313.07600000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>54329.606914</v>
+        <v>54329.606914000004</v>
       </c>
       <c r="BO12" s="1">
         <v>15.091557</v>
       </c>
       <c r="BP12" s="1">
-        <v>1214.620000</v>
+        <v>1214.6199999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-495.213000</v>
+        <v>-495.21300000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>54340.039916</v>
+        <v>54340.039916000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>15.094456</v>
+        <v>15.094455999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1336.900000</v>
+        <v>1336.9</v>
       </c>
       <c r="BV12" s="1">
-        <v>-694.542000</v>
+        <v>-694.54200000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>54351.023292</v>
+        <v>54351.023291999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>15.097506</v>
+        <v>15.097505999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1472.760000</v>
+        <v>1472.76</v>
       </c>
       <c r="CA12" s="1">
-        <v>-906.454000</v>
+        <v>-906.45399999999995</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>54363.123198</v>
+        <v>54363.123198000001</v>
       </c>
       <c r="CD12" s="1">
         <v>15.100868</v>
       </c>
       <c r="CE12" s="1">
-        <v>1827.250000</v>
+        <v>1827.25</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1408.950000</v>
+        <v>-1408.95</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>54190.461360</v>
+        <v>54190.461360000001</v>
       </c>
       <c r="B13" s="1">
         <v>15.052906</v>
       </c>
       <c r="C13" s="1">
-        <v>900.028000</v>
+        <v>900.02800000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.930000</v>
+        <v>-197.93</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>54200.944804</v>
+        <v>54200.944803999999</v>
       </c>
       <c r="G13" s="1">
         <v>15.055818</v>
       </c>
       <c r="H13" s="1">
-        <v>917.139000</v>
+        <v>917.13900000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.566000</v>
+        <v>-167.566</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>54211.344918</v>
+        <v>54211.344918000003</v>
       </c>
       <c r="L13" s="1">
         <v>15.058707</v>
       </c>
       <c r="M13" s="1">
-        <v>940.055000</v>
+        <v>940.05499999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.288000</v>
+        <v>-119.288</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>54221.590807</v>
@@ -3353,118 +3769,118 @@
         <v>15.061553</v>
       </c>
       <c r="R13" s="1">
-        <v>946.839000</v>
+        <v>946.83900000000006</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.393000</v>
+        <v>-103.393</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>54231.764261</v>
+        <v>54231.764260999997</v>
       </c>
       <c r="V13" s="1">
-        <v>15.064379</v>
+        <v>15.064379000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>953.444000</v>
+        <v>953.44399999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.510500</v>
+        <v>-88.510499999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>54242.367693</v>
       </c>
       <c r="AA13" s="1">
-        <v>15.067324</v>
+        <v>15.067323999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.762000</v>
+        <v>960.76199999999994</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.762400</v>
+        <v>-76.7624</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>54252.788638</v>
+        <v>54252.788637999998</v>
       </c>
       <c r="AF13" s="1">
         <v>15.070219</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.444000</v>
+        <v>965.44399999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.014000</v>
+        <v>-75.013999999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>54263.270594</v>
+        <v>54263.270594000001</v>
       </c>
       <c r="AK13" s="1">
         <v>15.073131</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.742000</v>
+        <v>972.74199999999996</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.763500</v>
+        <v>-79.763499999999993</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>54274.366129</v>
+        <v>54274.366129000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>15.076213</v>
+        <v>15.076212999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.858000</v>
+        <v>980.85799999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.414400</v>
+        <v>-91.414400000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>54285.824675</v>
+        <v>54285.824675000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>15.079396</v>
+        <v>15.079395999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.794000</v>
+        <v>990.79399999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.125000</v>
+        <v>-109.125</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>54296.564549</v>
+        <v>54296.564549000002</v>
       </c>
       <c r="AZ13" s="1">
         <v>15.082379</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.087000</v>
+        <v>999.08699999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.830000</v>
+        <v>-124.83</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>54307.882758</v>
@@ -3473,58 +3889,58 @@
         <v>15.085523</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.200000</v>
+        <v>1038.2</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.869000</v>
+        <v>-196.869</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>54319.014472</v>
+        <v>54319.014472000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>15.088615</v>
+        <v>15.088615000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.660000</v>
+        <v>1105.6600000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.045000</v>
+        <v>-313.04500000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>54330.000856</v>
+        <v>54330.000855999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>15.091667</v>
+        <v>15.091666999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1214.610000</v>
+        <v>1214.6099999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-495.189000</v>
+        <v>-495.18900000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>54340.454574</v>
+        <v>54340.454574000003</v>
       </c>
       <c r="BT13" s="1">
         <v>15.094571</v>
       </c>
       <c r="BU13" s="1">
-        <v>1336.890000</v>
+        <v>1336.89</v>
       </c>
       <c r="BV13" s="1">
-        <v>-694.305000</v>
+        <v>-694.30499999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>54351.470189</v>
@@ -3533,195 +3949,195 @@
         <v>15.097631</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1472.580000</v>
+        <v>1472.58</v>
       </c>
       <c r="CA13" s="1">
-        <v>-906.459000</v>
+        <v>-906.45899999999995</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>54363.969371</v>
+        <v>54363.969370999999</v>
       </c>
       <c r="CD13" s="1">
         <v>15.101103</v>
       </c>
       <c r="CE13" s="1">
-        <v>1827.430000</v>
+        <v>1827.43</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1407.750000</v>
+        <v>-1407.75</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>54190.806081</v>
+        <v>54190.806081000002</v>
       </c>
       <c r="B14" s="1">
-        <v>15.053002</v>
+        <v>15.053001999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>899.779000</v>
+        <v>899.779</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.027000</v>
+        <v>-198.02699999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>54201.291506</v>
+        <v>54201.291506000001</v>
       </c>
       <c r="G14" s="1">
         <v>15.055914</v>
       </c>
       <c r="H14" s="1">
-        <v>917.274000</v>
+        <v>917.274</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.902000</v>
+        <v>-167.90199999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>54211.692148</v>
+        <v>54211.692148000002</v>
       </c>
       <c r="L14" s="1">
-        <v>15.058803</v>
+        <v>15.058802999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>940.127000</v>
+        <v>940.12699999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.419000</v>
+        <v>-119.419</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>54222.019319</v>
+        <v>54222.019318999999</v>
       </c>
       <c r="Q14" s="1">
         <v>15.061672</v>
       </c>
       <c r="R14" s="1">
-        <v>946.866000</v>
+        <v>946.86599999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.425000</v>
+        <v>-103.425</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>54232.450683</v>
+        <v>54232.450683000003</v>
       </c>
       <c r="V14" s="1">
-        <v>15.064570</v>
+        <v>15.06457</v>
       </c>
       <c r="W14" s="1">
-        <v>953.553000</v>
+        <v>953.553</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.564100</v>
+        <v>-88.564099999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>54242.633052</v>
+        <v>54242.633051999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>15.067398</v>
+        <v>15.067398000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.715000</v>
+        <v>960.71500000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.057400</v>
+        <v>-77.057400000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>54253.131870</v>
+        <v>54253.131869999997</v>
       </c>
       <c r="AF14" s="1">
         <v>15.070314</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.391000</v>
+        <v>965.39099999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.934000</v>
+        <v>-74.933999999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>54263.617296</v>
+        <v>54263.617295999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>15.073227</v>
+        <v>15.073226999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.743000</v>
+        <v>972.74300000000005</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.774800</v>
+        <v>-79.774799999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>54274.725729</v>
+        <v>54274.725728999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>15.076313</v>
+        <v>15.076313000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.858000</v>
+        <v>980.85799999999995</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.401600</v>
+        <v>-91.401600000000002</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>54286.551811</v>
+        <v>54286.551810999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>15.079598</v>
+        <v>15.079598000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.793000</v>
+        <v>990.79300000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.142000</v>
+        <v>-109.142</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>54297.288745</v>
+        <v>54297.288744999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>15.082580</v>
+        <v>15.08258</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.091000</v>
+        <v>999.09100000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.823000</v>
+        <v>-124.82299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>54308.243381</v>
@@ -3730,105 +4146,105 @@
         <v>15.085623</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.200000</v>
+        <v>1038.2</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.872000</v>
+        <v>-196.87200000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>54319.391056</v>
       </c>
       <c r="BJ14" s="1">
-        <v>15.088720</v>
+        <v>15.08872</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.610000</v>
+        <v>1105.6099999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.054000</v>
+        <v>-313.05399999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>54330.424439</v>
+        <v>54330.424439000002</v>
       </c>
       <c r="BO14" s="1">
         <v>15.091785</v>
       </c>
       <c r="BP14" s="1">
-        <v>1214.640000</v>
+        <v>1214.6400000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-495.221000</v>
+        <v>-495.221</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>54341.208457</v>
+        <v>54341.208457000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>15.094780</v>
+        <v>15.09478</v>
       </c>
       <c r="BU14" s="1">
-        <v>1336.750000</v>
+        <v>1336.75</v>
       </c>
       <c r="BV14" s="1">
-        <v>-694.266000</v>
+        <v>-694.26599999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>54352.250927</v>
+        <v>54352.250927000001</v>
       </c>
       <c r="BY14" s="1">
         <v>15.097847</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1472.660000</v>
+        <v>1472.66</v>
       </c>
       <c r="CA14" s="1">
-        <v>-906.345000</v>
+        <v>-906.34500000000003</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>54364.201005</v>
+        <v>54364.201005000003</v>
       </c>
       <c r="CD14" s="1">
         <v>15.101167</v>
       </c>
       <c r="CE14" s="1">
-        <v>1827.590000</v>
+        <v>1827.59</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1407.960000</v>
+        <v>-1407.96</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>54191.147328</v>
+        <v>54191.147327999999</v>
       </c>
       <c r="B15" s="1">
         <v>15.053096</v>
       </c>
       <c r="C15" s="1">
-        <v>900.052000</v>
+        <v>900.05200000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.856000</v>
+        <v>-197.85599999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>54201.713634</v>
@@ -3837,223 +4253,223 @@
         <v>15.056032</v>
       </c>
       <c r="H15" s="1">
-        <v>917.057000</v>
+        <v>917.05700000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.671000</v>
+        <v>-167.67099999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>54212.107268</v>
       </c>
       <c r="L15" s="1">
-        <v>15.058919</v>
+        <v>15.058918999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>940.053000</v>
+        <v>940.053</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.526000</v>
+        <v>-119.526</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>54222.299065</v>
+        <v>54222.299064999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>15.061750</v>
+        <v>15.06175</v>
       </c>
       <c r="R15" s="1">
-        <v>946.867000</v>
+        <v>946.86699999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.409000</v>
+        <v>-103.40900000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>54232.797386</v>
+        <v>54232.797385999998</v>
       </c>
       <c r="V15" s="1">
-        <v>15.064666</v>
+        <v>15.064666000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>953.513000</v>
+        <v>953.51300000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.554200</v>
+        <v>-88.554199999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>54242.991661</v>
       </c>
       <c r="AA15" s="1">
-        <v>15.067498</v>
+        <v>15.067498000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.661000</v>
+        <v>960.66099999999994</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.100600</v>
+        <v>-77.1006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>54253.477085</v>
+        <v>54253.477084999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>15.070410</v>
+        <v>15.070410000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.504000</v>
+        <v>965.50400000000002</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.043000</v>
+        <v>-75.043000000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>54263.968005</v>
+        <v>54263.968005000002</v>
       </c>
       <c r="AK15" s="1">
         <v>15.073324</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.749000</v>
+        <v>972.74900000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.784000</v>
+        <v>-79.784000000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>54275.445889</v>
+        <v>54275.445889000002</v>
       </c>
       <c r="AP15" s="1">
         <v>15.076513</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.830000</v>
+        <v>980.83</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.413300</v>
+        <v>-91.413300000000007</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>54286.945171</v>
+        <v>54286.945170999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>15.079707</v>
+        <v>15.079707000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.771000</v>
+        <v>990.77099999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.155000</v>
+        <v>-109.155</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>54297.663187</v>
+        <v>54297.663186999998</v>
       </c>
       <c r="AZ15" s="1">
         <v>15.082684</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.078000</v>
+        <v>999.07799999999997</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.818000</v>
+        <v>-124.818</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>54308.606949</v>
+        <v>54308.606949000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>15.085724</v>
+        <v>15.085724000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.180000</v>
+        <v>1038.18</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.854000</v>
+        <v>-196.85400000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>54320.077895</v>
+        <v>54320.077895000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>15.088911</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.600000</v>
+        <v>1105.5999999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.044000</v>
+        <v>-313.04399999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>54331.132232</v>
+        <v>54331.132232000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>15.091981</v>
+        <v>15.091981000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1214.600000</v>
+        <v>1214.5999999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-495.169000</v>
+        <v>-495.16899999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>54341.321049</v>
+        <v>54341.321048999998</v>
       </c>
       <c r="BT15" s="1">
         <v>15.094811</v>
       </c>
       <c r="BU15" s="1">
-        <v>1336.660000</v>
+        <v>1336.66</v>
       </c>
       <c r="BV15" s="1">
-        <v>-694.184000</v>
+        <v>-694.18399999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>54352.376379</v>
+        <v>54352.376379000001</v>
       </c>
       <c r="BY15" s="1">
         <v>15.097882</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1472.550000</v>
+        <v>1472.55</v>
       </c>
       <c r="CA15" s="1">
-        <v>-906.496000</v>
+        <v>-906.49599999999998</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>54364.721802</v>
@@ -4062,273 +4478,273 @@
         <v>15.101312</v>
       </c>
       <c r="CE15" s="1">
-        <v>1826.950000</v>
+        <v>1826.95</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1408.910000</v>
+        <v>-1408.91</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>54191.570943</v>
+        <v>54191.570942999999</v>
       </c>
       <c r="B16" s="1">
-        <v>15.053214</v>
+        <v>15.053214000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>899.887000</v>
+        <v>899.88699999999994</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.230000</v>
+        <v>-198.23</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>54201.992354</v>
+        <v>54201.992354000002</v>
       </c>
       <c r="G16" s="1">
-        <v>15.056109</v>
+        <v>15.056108999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>917.182000</v>
+        <v>917.18200000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.566000</v>
+        <v>-167.566</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>54212.402884</v>
+        <v>54212.402884000003</v>
       </c>
       <c r="L16" s="1">
         <v>15.059001</v>
       </c>
       <c r="M16" s="1">
-        <v>940.164000</v>
+        <v>940.16399999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.390000</v>
+        <v>-119.39</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>54222.647777</v>
+        <v>54222.647776999998</v>
       </c>
       <c r="Q16" s="1">
         <v>15.061847</v>
       </c>
       <c r="R16" s="1">
-        <v>946.848000</v>
+        <v>946.84799999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.429000</v>
+        <v>-103.429</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>54233.140152</v>
       </c>
       <c r="V16" s="1">
-        <v>15.064761</v>
+        <v>15.064761000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>953.597000</v>
+        <v>953.59699999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.494800</v>
+        <v>-88.494799999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>54243.344316</v>
+        <v>54243.344316000002</v>
       </c>
       <c r="AA16" s="1">
         <v>15.067596</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.647000</v>
+        <v>960.64700000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.140600</v>
+        <v>-77.140600000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>54254.164540</v>
+        <v>54254.164539999998</v>
       </c>
       <c r="AF16" s="1">
         <v>15.070601</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.513000</v>
+        <v>965.51300000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.038000</v>
+        <v>-75.037999999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>54264.665374</v>
+        <v>54264.665373999997</v>
       </c>
       <c r="AK16" s="1">
         <v>15.073518</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.739000</v>
+        <v>972.73900000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.765900</v>
+        <v>-79.765900000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>54275.835744</v>
+        <v>54275.835744000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>15.076621</v>
+        <v>15.076620999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.863000</v>
+        <v>980.86300000000006</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.387400</v>
+        <v>-91.3874</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>54287.309698</v>
+        <v>54287.309697999997</v>
       </c>
       <c r="AU16" s="1">
         <v>15.079808</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.792000</v>
+        <v>990.79200000000003</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.141000</v>
+        <v>-109.14100000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>54298.050563</v>
+        <v>54298.050562999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>15.082792</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.099000</v>
+        <v>999.09900000000005</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.841000</v>
+        <v>-124.84099999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>54309.279989</v>
+        <v>54309.279989000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>15.085911</v>
+        <v>15.085910999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.180000</v>
+        <v>1038.18</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.872000</v>
+        <v>-196.87200000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>54320.514374</v>
+        <v>54320.514373999998</v>
       </c>
       <c r="BJ16" s="1">
         <v>15.089032</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.640000</v>
+        <v>1105.6400000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.033000</v>
+        <v>-313.03300000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>54331.241350</v>
+        <v>54331.241349999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>15.092011</v>
+        <v>15.092010999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1214.650000</v>
+        <v>1214.6500000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-495.207000</v>
+        <v>-495.20699999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>54341.749098</v>
       </c>
       <c r="BT16" s="1">
-        <v>15.094930</v>
+        <v>15.09493</v>
       </c>
       <c r="BU16" s="1">
-        <v>1336.550000</v>
+        <v>1336.55</v>
       </c>
       <c r="BV16" s="1">
-        <v>-694.207000</v>
+        <v>-694.20699999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>54352.813391</v>
+        <v>54352.813391000003</v>
       </c>
       <c r="BY16" s="1">
         <v>15.098004</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1472.680000</v>
+        <v>1472.68</v>
       </c>
       <c r="CA16" s="1">
-        <v>-906.430000</v>
+        <v>-906.43</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>54365.238635</v>
+        <v>54365.238635000002</v>
       </c>
       <c r="CD16" s="1">
         <v>15.101455</v>
       </c>
       <c r="CE16" s="1">
-        <v>1826.790000</v>
+        <v>1826.79</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1408.500000</v>
+        <v>-1408.5</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>54191.848672</v>
       </c>
@@ -4336,88 +4752,88 @@
         <v>15.053291</v>
       </c>
       <c r="C17" s="1">
-        <v>899.952000</v>
+        <v>899.952</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.896000</v>
+        <v>-197.89599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>54202.340545</v>
+        <v>54202.340544999999</v>
       </c>
       <c r="G17" s="1">
         <v>15.056206</v>
       </c>
       <c r="H17" s="1">
-        <v>917.157000</v>
+        <v>917.15700000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.757000</v>
+        <v>-167.75700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>54212.752068</v>
+        <v>54212.752068000002</v>
       </c>
       <c r="L17" s="1">
-        <v>15.059098</v>
+        <v>15.059098000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>940.056000</v>
+        <v>940.05600000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.475000</v>
+        <v>-119.47499999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>54222.993495</v>
+        <v>54222.993495000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>15.061943</v>
+        <v>15.061942999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>946.777000</v>
+        <v>946.77700000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.389000</v>
+        <v>-103.389</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>54233.827081</v>
+        <v>54233.827081000003</v>
       </c>
       <c r="V17" s="1">
         <v>15.064952</v>
       </c>
       <c r="W17" s="1">
-        <v>953.621000</v>
+        <v>953.62099999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.539000</v>
+        <v>-88.539000000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>54244.036275</v>
+        <v>54244.036274999999</v>
       </c>
       <c r="AA17" s="1">
         <v>15.067788</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.716000</v>
+        <v>960.71600000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.107800</v>
+        <v>-77.107799999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>54254.507308</v>
@@ -4426,103 +4842,103 @@
         <v>15.070696</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.455000</v>
+        <v>965.45500000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.013900</v>
+        <v>-75.013900000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>54265.016015</v>
+        <v>54265.016015000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>15.073616</v>
+        <v>15.073615999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.737000</v>
+        <v>972.73699999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.776300</v>
+        <v>-79.776300000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>54276.195841</v>
+        <v>54276.195841000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>15.076721</v>
+        <v>15.076720999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.821000</v>
+        <v>980.82100000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.410900</v>
+        <v>-91.410899999999998</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>54287.984256</v>
+        <v>54287.984256000003</v>
       </c>
       <c r="AU17" s="1">
         <v>15.079996</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.774000</v>
+        <v>990.774</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.119000</v>
+        <v>-109.119</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>54298.715730</v>
+        <v>54298.715730000004</v>
       </c>
       <c r="AZ17" s="1">
         <v>15.082977</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.088000</v>
+        <v>999.08799999999997</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.826000</v>
+        <v>-124.82599999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>54309.717491</v>
+        <v>54309.717491000003</v>
       </c>
       <c r="BE17" s="1">
         <v>15.086033</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.190000</v>
+        <v>1038.19</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.847000</v>
+        <v>-196.84700000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>54320.891829</v>
       </c>
       <c r="BJ17" s="1">
-        <v>15.089137</v>
+        <v>15.089136999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.610000</v>
+        <v>1105.6099999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.042000</v>
+        <v>-313.04199999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>54331.663943</v>
@@ -4531,210 +4947,210 @@
         <v>15.092129</v>
       </c>
       <c r="BP17" s="1">
-        <v>1214.590000</v>
+        <v>1214.5899999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-495.182000</v>
+        <v>-495.18200000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>54342.163288</v>
+        <v>54342.163288000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>15.095045</v>
+        <v>15.095045000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1336.400000</v>
+        <v>1336.4</v>
       </c>
       <c r="BV17" s="1">
-        <v>-694.290000</v>
+        <v>-694.29</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>54353.235490</v>
+        <v>54353.235489999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>15.098121</v>
+        <v>15.098121000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1472.550000</v>
+        <v>1472.55</v>
       </c>
       <c r="CA17" s="1">
-        <v>-906.442000</v>
+        <v>-906.44200000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>54365.788697</v>
+        <v>54365.788697000004</v>
       </c>
       <c r="CD17" s="1">
-        <v>15.101608</v>
+        <v>15.101608000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1827.160000</v>
+        <v>1827.16</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1407.900000</v>
+        <v>-1407.9</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>54192.189920</v>
+        <v>54192.189919999997</v>
       </c>
       <c r="B18" s="1">
         <v>15.053386</v>
       </c>
       <c r="C18" s="1">
-        <v>900.112000</v>
+        <v>900.11199999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.078000</v>
+        <v>-198.078</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>54202.683813</v>
+        <v>54202.683813000003</v>
       </c>
       <c r="G18" s="1">
-        <v>15.056301</v>
+        <v>15.056300999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>916.811000</v>
+        <v>916.81100000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.411000</v>
+        <v>-167.411</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>54213.095832</v>
+        <v>54213.095831999999</v>
       </c>
       <c r="L18" s="1">
         <v>15.059193</v>
       </c>
       <c r="M18" s="1">
-        <v>940.058000</v>
+        <v>940.05799999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.316000</v>
+        <v>-119.316</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>54223.693318</v>
+        <v>54223.693317999998</v>
       </c>
       <c r="Q18" s="1">
         <v>15.062137</v>
       </c>
       <c r="R18" s="1">
-        <v>946.822000</v>
+        <v>946.822</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.379000</v>
+        <v>-103.379</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>54234.168857</v>
+        <v>54234.168856999997</v>
       </c>
       <c r="V18" s="1">
         <v>15.065047</v>
       </c>
       <c r="W18" s="1">
-        <v>953.456000</v>
+        <v>953.45600000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.468800</v>
+        <v>-88.468800000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>54244.388921</v>
+        <v>54244.388920999998</v>
       </c>
       <c r="AA18" s="1">
         <v>15.067886</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.723000</v>
+        <v>960.72299999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.150100</v>
+        <v>-77.150099999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>54254.851500</v>
+        <v>54254.851499999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>15.070792</v>
+        <v>15.070792000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.491000</v>
+        <v>965.49099999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.990200</v>
+        <v>-74.990200000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>54265.362548</v>
+        <v>54265.362547999997</v>
       </c>
       <c r="AK18" s="1">
         <v>15.073712</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.746000</v>
+        <v>972.74599999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.779200</v>
+        <v>-79.779200000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>54276.866431</v>
+        <v>54276.866431000002</v>
       </c>
       <c r="AP18" s="1">
         <v>15.076907</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.864000</v>
+        <v>980.86400000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.422600</v>
+        <v>-91.422600000000003</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>54288.436111</v>
+        <v>54288.436111000003</v>
       </c>
       <c r="AU18" s="1">
         <v>15.080121</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.786000</v>
+        <v>990.78599999999994</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.114000</v>
+        <v>-109.114</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>54299.126914</v>
@@ -4743,620 +5159,620 @@
         <v>15.083091</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.078000</v>
+        <v>999.07799999999997</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.833000</v>
+        <v>-124.833</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>54310.080035</v>
+        <v>54310.080034999999</v>
       </c>
       <c r="BE18" s="1">
         <v>15.086133</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.190000</v>
+        <v>1038.19</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.858000</v>
+        <v>-196.858</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>54321.266314</v>
       </c>
       <c r="BJ18" s="1">
-        <v>15.089241</v>
+        <v>15.089240999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.620000</v>
+        <v>1105.6199999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.035000</v>
+        <v>-313.03500000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>54332.060277</v>
+        <v>54332.060276999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>15.092239</v>
+        <v>15.092238999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1214.570000</v>
+        <v>1214.57</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-495.179000</v>
+        <v>-495.17899999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>54342.595305</v>
+        <v>54342.595305000003</v>
       </c>
       <c r="BT18" s="1">
         <v>15.095165</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.320000</v>
+        <v>1336.32</v>
       </c>
       <c r="BV18" s="1">
-        <v>-694.383000</v>
+        <v>-694.38300000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>54353.660025</v>
+        <v>54353.660024999997</v>
       </c>
       <c r="BY18" s="1">
         <v>15.098239</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1472.600000</v>
+        <v>1472.6</v>
       </c>
       <c r="CA18" s="1">
-        <v>-906.438000</v>
+        <v>-906.43799999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>54366.320410</v>
+        <v>54366.32041</v>
       </c>
       <c r="CD18" s="1">
         <v>15.101756</v>
       </c>
       <c r="CE18" s="1">
-        <v>1827.430000</v>
+        <v>1827.43</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1409.130000</v>
+        <v>-1409.13</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>54192.533646</v>
+        <v>54192.533646000004</v>
       </c>
       <c r="B19" s="1">
-        <v>15.053482</v>
+        <v>15.053482000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>899.797000</v>
+        <v>899.79700000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.980000</v>
+        <v>-197.98</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>54203.371233</v>
+        <v>54203.371232999998</v>
       </c>
       <c r="G19" s="1">
         <v>15.056492</v>
       </c>
       <c r="H19" s="1">
-        <v>917.080000</v>
+        <v>917.08</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.586000</v>
+        <v>-167.58600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>54213.802627</v>
+        <v>54213.802626999997</v>
       </c>
       <c r="L19" s="1">
-        <v>15.059390</v>
+        <v>15.05939</v>
       </c>
       <c r="M19" s="1">
-        <v>940.126000</v>
+        <v>940.12599999999998</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.342000</v>
+        <v>-119.342</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>54224.039524</v>
       </c>
       <c r="Q19" s="1">
-        <v>15.062233</v>
+        <v>15.062233000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>946.843000</v>
+        <v>946.84299999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.356000</v>
+        <v>-103.35599999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>54234.515162</v>
+        <v>54234.515162000003</v>
       </c>
       <c r="V19" s="1">
-        <v>15.065143</v>
+        <v>15.065143000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>953.560000</v>
+        <v>953.56</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.605500</v>
+        <v>-88.605500000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>54244.735625</v>
+        <v>54244.735625000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.067982</v>
+        <v>15.067982000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.713000</v>
+        <v>960.71299999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.119100</v>
+        <v>-77.119100000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>54255.505754</v>
+        <v>54255.505753999998</v>
       </c>
       <c r="AF19" s="1">
         <v>15.070974</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.460000</v>
+        <v>965.46</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.023500</v>
+        <v>-75.023499999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>54266.012477</v>
+        <v>54266.012476999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>15.073892</v>
+        <v>15.073892000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.723000</v>
+        <v>972.72299999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.742200</v>
+        <v>-79.742199999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>54277.303938</v>
+        <v>54277.303937999997</v>
       </c>
       <c r="AP19" s="1">
         <v>15.077029</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.846000</v>
+        <v>980.846</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.392700</v>
+        <v>-91.392700000000005</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>54288.800207</v>
       </c>
       <c r="AU19" s="1">
-        <v>15.080222</v>
+        <v>15.080221999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.780000</v>
+        <v>990.78</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.098000</v>
+        <v>-109.098</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>54299.516242</v>
+        <v>54299.516241999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>15.083199</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.083000</v>
+        <v>999.08299999999997</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.829000</v>
+        <v>-124.82899999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>54310.442646</v>
+        <v>54310.442646000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>15.086234</v>
+        <v>15.086233999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.190000</v>
+        <v>1038.19</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.851000</v>
+        <v>-196.851</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>54321.700307</v>
+        <v>54321.700306999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>15.089361</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.610000</v>
+        <v>1105.6099999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.048000</v>
+        <v>-313.048</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>54332.487301</v>
+        <v>54332.487301000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>15.092358</v>
+        <v>15.092358000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1214.600000</v>
+        <v>1214.5999999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-495.186000</v>
+        <v>-495.18599999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>54343.022824</v>
       </c>
       <c r="BT19" s="1">
-        <v>15.095284</v>
+        <v>15.095283999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.250000</v>
+        <v>1336.25</v>
       </c>
       <c r="BV19" s="1">
-        <v>-694.527000</v>
+        <v>-694.52700000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>54354.106424</v>
+        <v>54354.106423999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>15.098363</v>
+        <v>15.098363000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1472.580000</v>
+        <v>1472.58</v>
       </c>
       <c r="CA19" s="1">
-        <v>-906.419000</v>
+        <v>-906.41899999999998</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>54366.835288</v>
+        <v>54366.835288000002</v>
       </c>
       <c r="CD19" s="1">
         <v>15.101899</v>
       </c>
       <c r="CE19" s="1">
-        <v>1828.720000</v>
+        <v>1828.72</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1409.070000</v>
+        <v>-1409.07</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>54193.215149</v>
+        <v>54193.215149000003</v>
       </c>
       <c r="B20" s="1">
         <v>15.053671</v>
       </c>
       <c r="C20" s="1">
-        <v>899.893000</v>
+        <v>899.89300000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.842000</v>
+        <v>-197.84200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>54203.718087</v>
+        <v>54203.718087000001</v>
       </c>
       <c r="G20" s="1">
         <v>15.056588</v>
       </c>
       <c r="H20" s="1">
-        <v>917.216000</v>
+        <v>917.21600000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.688000</v>
+        <v>-167.68799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>54214.140369</v>
+        <v>54214.140369000001</v>
       </c>
       <c r="L20" s="1">
         <v>15.059483</v>
       </c>
       <c r="M20" s="1">
-        <v>940.019000</v>
+        <v>940.01900000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.547000</v>
+        <v>-119.547</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>54224.389701</v>
       </c>
       <c r="Q20" s="1">
-        <v>15.062330</v>
+        <v>15.062329999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>946.845000</v>
+        <v>946.84500000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.402000</v>
+        <v>-103.402</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>54235.165108</v>
+        <v>54235.165108000001</v>
       </c>
       <c r="V20" s="1">
         <v>15.065324</v>
       </c>
       <c r="W20" s="1">
-        <v>953.420000</v>
+        <v>953.42</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.497000</v>
+        <v>-88.497</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>54245.399241</v>
+        <v>54245.399240999999</v>
       </c>
       <c r="AA20" s="1">
         <v>15.068166</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.721000</v>
+        <v>960.721</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.152500</v>
+        <v>-77.152500000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>54255.883178</v>
+        <v>54255.883177999996</v>
       </c>
       <c r="AF20" s="1">
-        <v>15.071079</v>
+        <v>15.071078999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.513000</v>
+        <v>965.51300000000003</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.989600</v>
+        <v>-74.989599999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>54266.407329</v>
+        <v>54266.407329000001</v>
       </c>
       <c r="AK20" s="1">
         <v>15.074002</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.733000</v>
+        <v>972.73299999999995</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.780600</v>
+        <v>-79.780600000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>54277.663998</v>
+        <v>54277.663998000004</v>
       </c>
       <c r="AP20" s="1">
-        <v>15.077129</v>
+        <v>15.077128999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.849000</v>
+        <v>980.84900000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.387000</v>
+        <v>-91.387</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>54289.164734</v>
+        <v>54289.164733999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>15.080324</v>
+        <v>15.080323999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.762000</v>
+        <v>990.76199999999994</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.133000</v>
+        <v>-109.133</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>54299.873397</v>
+        <v>54299.873397000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.083298</v>
+        <v>15.083297999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.078000</v>
+        <v>999.07799999999997</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.831000</v>
+        <v>-124.831</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>54310.861234</v>
+        <v>54310.861234000004</v>
       </c>
       <c r="BE20" s="1">
-        <v>15.086350</v>
+        <v>15.086349999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.190000</v>
+        <v>1038.19</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.864000</v>
+        <v>-196.864</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>54322.046516</v>
+        <v>54322.046516000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>15.089457</v>
+        <v>15.089456999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.630000</v>
+        <v>1105.6300000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.015000</v>
+        <v>-313.01499999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>54332.880630</v>
+        <v>54332.88063</v>
       </c>
       <c r="BO20" s="1">
-        <v>15.092467</v>
+        <v>15.092466999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1214.580000</v>
+        <v>1214.58</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-495.209000</v>
+        <v>-495.209</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>54343.433014</v>
+        <v>54343.433014000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>15.095398</v>
+        <v>15.095397999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.290000</v>
+        <v>1336.29</v>
       </c>
       <c r="BV20" s="1">
-        <v>-694.712000</v>
+        <v>-694.71199999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>54354.490824</v>
       </c>
       <c r="BY20" s="1">
-        <v>15.098470</v>
+        <v>15.098470000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1472.450000</v>
+        <v>1472.45</v>
       </c>
       <c r="CA20" s="1">
-        <v>-906.458000</v>
+        <v>-906.45799999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>54367.353305</v>
+        <v>54367.353304999997</v>
       </c>
       <c r="CD20" s="1">
         <v>15.102043</v>
       </c>
       <c r="CE20" s="1">
-        <v>1828.130000</v>
+        <v>1828.13</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1407.620000</v>
+        <v>-1407.62</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>54193.556396</v>
       </c>
@@ -5364,73 +5780,73 @@
         <v>15.053766</v>
       </c>
       <c r="C21" s="1">
-        <v>899.859000</v>
+        <v>899.85900000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.038000</v>
+        <v>-198.03800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>54204.062191</v>
+        <v>54204.062190999997</v>
       </c>
       <c r="G21" s="1">
-        <v>15.056684</v>
+        <v>15.056684000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>916.984000</v>
+        <v>916.98400000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.740000</v>
+        <v>-167.74</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>54214.793104</v>
+        <v>54214.793103999997</v>
       </c>
       <c r="L21" s="1">
-        <v>15.059665</v>
+        <v>15.059665000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>940.169000</v>
+        <v>940.16899999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.397000</v>
+        <v>-119.39700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>54225.045413</v>
       </c>
       <c r="Q21" s="1">
-        <v>15.062513</v>
+        <v>15.062512999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>946.842000</v>
+        <v>946.84199999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.454000</v>
+        <v>-103.45399999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>54235.543733</v>
+        <v>54235.543732999999</v>
       </c>
       <c r="V21" s="1">
         <v>15.065429</v>
       </c>
       <c r="W21" s="1">
-        <v>953.511000</v>
+        <v>953.51099999999997</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.554200</v>
+        <v>-88.554199999999994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>54245.782152</v>
@@ -5439,210 +5855,210 @@
         <v>15.068273</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.740000</v>
+        <v>960.74</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.147000</v>
+        <v>-77.147000000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>54256.224921</v>
+        <v>54256.224921000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>15.071174</v>
+        <v>15.071173999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.439000</v>
+        <v>965.43899999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.957800</v>
+        <v>-74.957800000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>54266.765404</v>
+        <v>54266.765403999998</v>
       </c>
       <c r="AK21" s="1">
         <v>15.074102</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.723000</v>
+        <v>972.72299999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.761800</v>
+        <v>-79.761799999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>54278.023101</v>
+        <v>54278.023100999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.077229</v>
+        <v>15.077229000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.833000</v>
+        <v>980.83299999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.392300</v>
+        <v>-91.392300000000006</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>54289.591328</v>
+        <v>54289.591328000002</v>
       </c>
       <c r="AU21" s="1">
         <v>15.080442</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.752000</v>
+        <v>990.75199999999995</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.125000</v>
+        <v>-109.125</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>54300.305872</v>
+        <v>54300.305871999997</v>
       </c>
       <c r="AZ21" s="1">
         <v>15.083418</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.101000</v>
+        <v>999.101</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.838000</v>
+        <v>-124.83799999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>54311.163297</v>
+        <v>54311.163296999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>15.086434</v>
+        <v>15.086434000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.190000</v>
+        <v>1038.19</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.869000</v>
+        <v>-196.869</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>54322.422514</v>
+        <v>54322.422513999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>15.089562</v>
+        <v>15.089562000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.600000</v>
+        <v>1105.5999999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.028000</v>
+        <v>-313.02800000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>54333.302229</v>
+        <v>54333.302229000001</v>
       </c>
       <c r="BO21" s="1">
         <v>15.092584</v>
       </c>
       <c r="BP21" s="1">
-        <v>1214.590000</v>
+        <v>1214.5899999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-495.163000</v>
+        <v>-495.16300000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>54343.862054</v>
+        <v>54343.862053999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>15.095517</v>
+        <v>15.095516999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1336.390000</v>
+        <v>1336.39</v>
       </c>
       <c r="BV21" s="1">
-        <v>-694.688000</v>
+        <v>-694.68799999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>54354.953607</v>
+        <v>54354.953607000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>15.098598</v>
+        <v>15.098598000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1472.660000</v>
+        <v>1472.66</v>
       </c>
       <c r="CA21" s="1">
-        <v>-906.465000</v>
+        <v>-906.46500000000003</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>54367.873382</v>
+        <v>54367.873381999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>15.102187</v>
+        <v>15.102187000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1828.080000</v>
+        <v>1828.08</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1407.770000</v>
+        <v>-1407.77</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>54193.898141</v>
+        <v>54193.898140999998</v>
       </c>
       <c r="B22" s="1">
-        <v>15.053861</v>
+        <v>15.053860999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>899.824000</v>
+        <v>899.82399999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.014000</v>
+        <v>-198.01400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>54204.728286</v>
+        <v>54204.728285999998</v>
       </c>
       <c r="G22" s="1">
-        <v>15.056869</v>
+        <v>15.056869000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>917.309000</v>
+        <v>917.30899999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.558000</v>
+        <v>-167.55799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>54215.174562</v>
@@ -5651,226 +6067,226 @@
         <v>15.059771</v>
       </c>
       <c r="M22" s="1">
-        <v>940.006000</v>
+        <v>940.00599999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.385000</v>
+        <v>-119.38500000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>54225.434310</v>
+        <v>54225.434309999997</v>
       </c>
       <c r="Q22" s="1">
         <v>15.062621</v>
       </c>
       <c r="R22" s="1">
-        <v>946.777000</v>
+        <v>946.77700000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.426000</v>
+        <v>-103.426</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>54235.887460</v>
+        <v>54235.887459999998</v>
       </c>
       <c r="V22" s="1">
         <v>15.065524</v>
       </c>
       <c r="W22" s="1">
-        <v>953.671000</v>
+        <v>953.67100000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.458400</v>
+        <v>-88.458399999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>54246.131335</v>
+        <v>54246.131334999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>15.068370</v>
+        <v>15.06837</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.730000</v>
+        <v>960.73</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.107600</v>
+        <v>-77.107600000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>54256.574106</v>
       </c>
       <c r="AF22" s="1">
-        <v>15.071271</v>
+        <v>15.071270999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.536000</v>
+        <v>965.53599999999994</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.819600</v>
+        <v>-74.819599999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>54267.108669</v>
+        <v>54267.108669000001</v>
       </c>
       <c r="AK22" s="1">
         <v>15.074197</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.717000</v>
+        <v>972.71699999999998</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.776600</v>
+        <v>-79.776600000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>54278.445198</v>
+        <v>54278.445198000001</v>
       </c>
       <c r="AP22" s="1">
         <v>15.077346</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.841000</v>
+        <v>980.84100000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.405300</v>
+        <v>-91.405299999999997</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>54289.893744</v>
+        <v>54289.893744000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>15.080526</v>
+        <v>15.080526000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.774000</v>
+        <v>990.774</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.135000</v>
+        <v>-109.13500000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>54300.592602</v>
+        <v>54300.592601999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>15.083498</v>
+        <v>15.083498000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.073000</v>
+        <v>999.07299999999998</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.834000</v>
+        <v>-124.834</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>54311.523425</v>
+        <v>54311.523424999999</v>
       </c>
       <c r="BE22" s="1">
         <v>15.086534</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.180000</v>
+        <v>1038.18</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.844000</v>
+        <v>-196.84399999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>54322.798945</v>
+        <v>54322.798945000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>15.089666</v>
+        <v>15.089665999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.640000</v>
+        <v>1105.6400000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.052000</v>
+        <v>-313.05200000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>54333.699524</v>
+        <v>54333.699524000003</v>
       </c>
       <c r="BO22" s="1">
         <v>15.092694</v>
       </c>
       <c r="BP22" s="1">
-        <v>1214.570000</v>
+        <v>1214.57</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-495.218000</v>
+        <v>-495.21800000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>54344.289637</v>
+        <v>54344.289637000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>15.095636</v>
+        <v>15.095636000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1336.500000</v>
+        <v>1336.5</v>
       </c>
       <c r="BV22" s="1">
-        <v>-694.797000</v>
+        <v>-694.79700000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>54355.399495</v>
+        <v>54355.399494999998</v>
       </c>
       <c r="BY22" s="1">
         <v>15.098722</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1472.520000</v>
+        <v>1472.52</v>
       </c>
       <c r="CA22" s="1">
-        <v>-906.357000</v>
+        <v>-906.35699999999997</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>54368.424438</v>
+        <v>54368.424438000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>15.102340</v>
+        <v>15.10234</v>
       </c>
       <c r="CE22" s="1">
-        <v>1828.620000</v>
+        <v>1828.62</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1408.130000</v>
+        <v>-1408.13</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>54194.547434</v>
       </c>
@@ -5878,148 +6294,148 @@
         <v>15.054041</v>
       </c>
       <c r="C23" s="1">
-        <v>899.900000</v>
+        <v>899.9</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.994000</v>
+        <v>-197.994</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>54205.096349</v>
+        <v>54205.096348999999</v>
       </c>
       <c r="G23" s="1">
-        <v>15.056971</v>
+        <v>15.056971000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>916.432000</v>
+        <v>916.43200000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.350000</v>
+        <v>-167.35</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>54215.521760</v>
+        <v>54215.521760000003</v>
       </c>
       <c r="L23" s="1">
-        <v>15.059867</v>
+        <v>15.059867000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>940.033000</v>
+        <v>940.03300000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.349000</v>
+        <v>-119.349</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>54225.784976</v>
+        <v>54225.784976000003</v>
       </c>
       <c r="Q23" s="1">
         <v>15.062718</v>
       </c>
       <c r="R23" s="1">
-        <v>946.812000</v>
+        <v>946.81200000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.406000</v>
+        <v>-103.40600000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>54236.231780</v>
+        <v>54236.231780000002</v>
       </c>
       <c r="V23" s="1">
-        <v>15.065620</v>
+        <v>15.065619999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>953.569000</v>
+        <v>953.56899999999996</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.560700</v>
+        <v>-88.560699999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>54246.481029</v>
+        <v>54246.481029000002</v>
       </c>
       <c r="AA23" s="1">
         <v>15.068467</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.691000</v>
+        <v>960.69100000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.096300</v>
+        <v>-77.096299999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>54256.999177</v>
+        <v>54256.999176999998</v>
       </c>
       <c r="AF23" s="1">
         <v>15.071389</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.211000</v>
+        <v>965.21100000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.984100</v>
+        <v>-74.984099999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>54267.803066</v>
       </c>
       <c r="AK23" s="1">
-        <v>15.074390</v>
+        <v>15.074389999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.728000</v>
+        <v>972.72799999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.758100</v>
+        <v>-79.758099999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>54278.742797</v>
+        <v>54278.742796999999</v>
       </c>
       <c r="AP23" s="1">
         <v>15.077429</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.853000</v>
+        <v>980.85299999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.412300</v>
+        <v>-91.412300000000002</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>54290.257949</v>
+        <v>54290.257948999999</v>
       </c>
       <c r="AU23" s="1">
         <v>15.080627</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.770000</v>
+        <v>990.77</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.097000</v>
+        <v>-109.09699999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>54300.951663</v>
@@ -6028,88 +6444,88 @@
         <v>15.083598</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.081000</v>
+        <v>999.08100000000002</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.822000</v>
+        <v>-124.822</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>54311.882497</v>
+        <v>54311.882496999999</v>
       </c>
       <c r="BE23" s="1">
         <v>15.086634</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.180000</v>
+        <v>1038.18</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.879000</v>
+        <v>-196.87899999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>54323.548401</v>
       </c>
       <c r="BJ23" s="1">
-        <v>15.089875</v>
+        <v>15.089874999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.610000</v>
+        <v>1105.6099999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.016000</v>
+        <v>-313.01600000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>54334.117651</v>
       </c>
       <c r="BO23" s="1">
-        <v>15.092810</v>
+        <v>15.09281</v>
       </c>
       <c r="BP23" s="1">
-        <v>1214.610000</v>
+        <v>1214.6099999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-495.175000</v>
+        <v>-495.17500000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>54344.703801</v>
+        <v>54344.703801000003</v>
       </c>
       <c r="BT23" s="1">
         <v>15.095751</v>
       </c>
       <c r="BU23" s="1">
-        <v>1336.690000</v>
+        <v>1336.69</v>
       </c>
       <c r="BV23" s="1">
-        <v>-694.822000</v>
+        <v>-694.822</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>54355.858791</v>
+        <v>54355.858790999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>15.098850</v>
+        <v>15.098850000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1472.500000</v>
+        <v>1472.5</v>
       </c>
       <c r="CA23" s="1">
-        <v>-906.366000</v>
+        <v>-906.36599999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>54368.954199</v>
@@ -6118,120 +6534,120 @@
         <v>15.102487</v>
       </c>
       <c r="CE23" s="1">
-        <v>1827.340000</v>
+        <v>1827.34</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1407.800000</v>
+        <v>-1407.8</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>54194.924363</v>
+        <v>54194.924362999998</v>
       </c>
       <c r="B24" s="1">
-        <v>15.054146</v>
+        <v>15.054145999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>899.868000</v>
+        <v>899.86800000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.052000</v>
+        <v>-198.05199999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>54205.441534</v>
+        <v>54205.441533999998</v>
       </c>
       <c r="G24" s="1">
         <v>15.057067</v>
       </c>
       <c r="H24" s="1">
-        <v>916.871000</v>
+        <v>916.87099999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.167000</v>
+        <v>-167.167</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>54215.867441</v>
+        <v>54215.867441000002</v>
       </c>
       <c r="L24" s="1">
         <v>15.059963</v>
       </c>
       <c r="M24" s="1">
-        <v>940.050000</v>
+        <v>940.05</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.413000</v>
+        <v>-119.413</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>54226.133635</v>
+        <v>54226.133634999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>15.062815</v>
+        <v>15.062815000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>946.840000</v>
+        <v>946.84</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.440000</v>
+        <v>-103.44</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>54236.649346</v>
+        <v>54236.649345999998</v>
       </c>
       <c r="V24" s="1">
-        <v>15.065736</v>
+        <v>15.065735999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>953.642000</v>
+        <v>953.64200000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.520000</v>
+        <v>-88.52</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>54246.895702</v>
+        <v>54246.895702000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>15.068582</v>
+        <v>15.068581999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.637000</v>
+        <v>960.63699999999994</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.150700</v>
+        <v>-77.150700000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>54257.279914</v>
+        <v>54257.279913999999</v>
       </c>
       <c r="AF24" s="1">
         <v>15.071467</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.451000</v>
+        <v>965.45100000000002</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.019200</v>
+        <v>-75.019199999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>54268.153242</v>
@@ -6240,165 +6656,165 @@
         <v>15.074487</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.719000</v>
+        <v>972.71900000000005</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.759800</v>
+        <v>-79.759799999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>54279.101403</v>
+        <v>54279.101403000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>15.077528</v>
+        <v>15.077527999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.830000</v>
+        <v>980.83</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.415700</v>
+        <v>-91.415700000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>54290.623004</v>
+        <v>54290.623004000001</v>
       </c>
       <c r="AU24" s="1">
         <v>15.080729</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.769000</v>
+        <v>990.76900000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.121000</v>
+        <v>-109.121</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>54301.311805</v>
+        <v>54301.311804999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>15.083698</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.094000</v>
+        <v>999.09400000000005</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.822000</v>
+        <v>-124.822</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>54312.607649</v>
+        <v>54312.607648999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>15.086835</v>
+        <v>15.086835000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.210000</v>
+        <v>1038.21</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.853000</v>
+        <v>-196.85300000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>54323.922421</v>
+        <v>54323.922421000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>15.089978</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.610000</v>
+        <v>1105.6099999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.079000</v>
+        <v>-313.07900000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>54334.516436</v>
+        <v>54334.516435999998</v>
       </c>
       <c r="BO24" s="1">
         <v>15.092921</v>
       </c>
       <c r="BP24" s="1">
-        <v>1214.610000</v>
+        <v>1214.6099999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-495.219000</v>
+        <v>-495.21899999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>54345.130820</v>
+        <v>54345.130819999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>15.095870</v>
+        <v>15.09587</v>
       </c>
       <c r="BU24" s="1">
-        <v>1336.750000</v>
+        <v>1336.75</v>
       </c>
       <c r="BV24" s="1">
-        <v>-694.651000</v>
+        <v>-694.65099999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>54356.613206</v>
+        <v>54356.613206000002</v>
       </c>
       <c r="BY24" s="1">
         <v>15.099059</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1472.630000</v>
+        <v>1472.63</v>
       </c>
       <c r="CA24" s="1">
-        <v>-906.305000</v>
+        <v>-906.30499999999995</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>54369.792936</v>
+        <v>54369.792935999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>15.102720</v>
+        <v>15.10272</v>
       </c>
       <c r="CE24" s="1">
-        <v>1827.100000</v>
+        <v>1827.1</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1409.230000</v>
+        <v>-1409.23</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>54195.269578</v>
+        <v>54195.269577999999</v>
       </c>
       <c r="B25" s="1">
         <v>15.054242</v>
       </c>
       <c r="C25" s="1">
-        <v>899.904000</v>
+        <v>899.904</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.093000</v>
+        <v>-198.09299999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>54206.003997</v>
@@ -6407,118 +6823,118 @@
         <v>15.057223</v>
       </c>
       <c r="H25" s="1">
-        <v>917.239000</v>
+        <v>917.23900000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.410000</v>
+        <v>-167.41</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>54216.279615</v>
+        <v>54216.279614999999</v>
       </c>
       <c r="L25" s="1">
-        <v>15.060078</v>
+        <v>15.060078000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>940.014000</v>
+        <v>940.01400000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.554000</v>
+        <v>-119.554</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>54226.561222</v>
+        <v>54226.561221999997</v>
       </c>
       <c r="Q25" s="1">
         <v>15.062934</v>
       </c>
       <c r="R25" s="1">
-        <v>946.826000</v>
+        <v>946.82600000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.442000</v>
+        <v>-103.44199999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>54236.941956</v>
+        <v>54236.941956000002</v>
       </c>
       <c r="V25" s="1">
-        <v>15.065817</v>
+        <v>15.065816999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>953.546000</v>
+        <v>953.54600000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.507800</v>
+        <v>-88.507800000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>54247.187814</v>
+        <v>54247.187813999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>15.068663</v>
+        <v>15.068663000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.752000</v>
+        <v>960.75199999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.135300</v>
+        <v>-77.135300000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>54257.621656</v>
+        <v>54257.621656000003</v>
       </c>
       <c r="AF25" s="1">
         <v>15.071562</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.552000</v>
+        <v>965.55200000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.907200</v>
+        <v>-74.907200000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>54268.504377</v>
+        <v>54268.504376999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>15.074585</v>
+        <v>15.074585000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.729000</v>
+        <v>972.72900000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.751100</v>
+        <v>-79.751099999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>54279.465003</v>
+        <v>54279.465002999998</v>
       </c>
       <c r="AP25" s="1">
         <v>15.077629</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.854000</v>
+        <v>980.85400000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.387300</v>
+        <v>-91.387299999999996</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>54291.350605</v>
@@ -6527,377 +6943,378 @@
         <v>15.080931</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.771000</v>
+        <v>990.77099999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.095000</v>
+        <v>-109.095</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>54302.031453</v>
+        <v>54302.031453000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>15.083898</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.089000</v>
+        <v>999.08900000000006</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.828000</v>
+        <v>-124.828</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>54312.967780</v>
+        <v>54312.967779999999</v>
       </c>
       <c r="BE25" s="1">
         <v>15.086935</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.180000</v>
+        <v>1038.18</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.829000</v>
+        <v>-196.82900000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>54324.298352</v>
+        <v>54324.298351999998</v>
       </c>
       <c r="BJ25" s="1">
         <v>15.090083</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.630000</v>
+        <v>1105.6300000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.030000</v>
+        <v>-313.02999999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>54334.939523</v>
+        <v>54334.939523000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>15.093039</v>
+        <v>15.093038999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1214.600000</v>
+        <v>1214.5999999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-495.163000</v>
+        <v>-495.16300000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>54345.876307</v>
+        <v>54345.876306999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>15.096077</v>
+        <v>15.096076999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1336.880000</v>
+        <v>1336.88</v>
       </c>
       <c r="BV25" s="1">
-        <v>-694.602000</v>
+        <v>-694.60199999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>54356.739717</v>
+        <v>54356.739716999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>15.099094</v>
+        <v>15.099093999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1472.470000</v>
+        <v>1472.47</v>
       </c>
       <c r="CA25" s="1">
-        <v>-906.342000</v>
+        <v>-906.34199999999998</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>54369.990841</v>
+        <v>54369.990840999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>15.102775</v>
+        <v>15.102774999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1828.580000</v>
+        <v>1828.58</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1408.630000</v>
+        <v>-1408.63</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>54195.609375</v>
       </c>
       <c r="B26" s="1">
-        <v>15.054336</v>
+        <v>15.054335999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>900.114000</v>
+        <v>900.11400000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.105000</v>
+        <v>-198.10499999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>54206.425627</v>
+        <v>54206.425626999997</v>
       </c>
       <c r="G26" s="1">
-        <v>15.057340</v>
+        <v>15.05734</v>
       </c>
       <c r="H26" s="1">
-        <v>917.168000</v>
+        <v>917.16800000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.804000</v>
+        <v>-167.804</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>54216.578731</v>
+        <v>54216.578731000001</v>
       </c>
       <c r="L26" s="1">
-        <v>15.060161</v>
+        <v>15.060161000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>940.000000</v>
+        <v>940</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.462000</v>
+        <v>-119.462</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>54226.840469</v>
+        <v>54226.840469000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>15.063011</v>
+        <v>15.063010999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>946.889000</v>
+        <v>946.88900000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.412000</v>
+        <v>-103.41200000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>54237.284724</v>
+        <v>54237.284723999997</v>
       </c>
       <c r="V26" s="1">
-        <v>15.065912</v>
+        <v>15.065912000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>953.519000</v>
+        <v>953.51900000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.610900</v>
+        <v>-88.610900000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>54247.527077</v>
+        <v>54247.527076999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>15.068758</v>
+        <v>15.068758000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.630000</v>
+        <v>960.63</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.097100</v>
+        <v>-77.097099999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>54257.967895</v>
+        <v>54257.967895000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>15.071658</v>
+        <v>15.071657999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.227000</v>
+        <v>965.22699999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.946500</v>
+        <v>-74.9465</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>54269.198313</v>
+        <v>54269.198313000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>15.074777</v>
+        <v>15.074776999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.724000</v>
+        <v>972.72400000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.786300</v>
+        <v>-79.786299999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>54280.192138</v>
+        <v>54280.192137999999</v>
       </c>
       <c r="AP26" s="1">
         <v>15.077831</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.852000</v>
+        <v>980.85199999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.384600</v>
+        <v>-91.384600000000006</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>54291.741451</v>
+        <v>54291.741451000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>15.081039</v>
+        <v>15.081039000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.771000</v>
+        <v>990.77099999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.123000</v>
+        <v>-109.123</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>54302.408414</v>
+        <v>54302.408413999998</v>
       </c>
       <c r="AZ26" s="1">
         <v>15.084002</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.087000</v>
+        <v>999.08699999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.830000</v>
+        <v>-124.83</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>54313.329823</v>
       </c>
       <c r="BE26" s="1">
-        <v>15.087036</v>
+        <v>15.087035999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.180000</v>
+        <v>1038.18</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.854000</v>
+        <v>-196.85400000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>54324.980847</v>
+        <v>54324.980846999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>15.090272</v>
+        <v>15.090272000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.600000</v>
+        <v>1105.5999999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-312.992000</v>
+        <v>-312.99200000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>54335.641361</v>
+        <v>54335.641361000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>15.093234</v>
+        <v>15.093234000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1214.570000</v>
+        <v>1214.57</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-495.217000</v>
+        <v>-495.21699999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>54346.007288</v>
+        <v>54346.007288000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>15.096113</v>
+        <v>15.096113000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1336.860000</v>
+        <v>1336.86</v>
       </c>
       <c r="BV26" s="1">
-        <v>-694.492000</v>
+        <v>-694.49199999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>54357.163764</v>
+        <v>54357.163763999997</v>
       </c>
       <c r="BY26" s="1">
         <v>15.099212</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1472.590000</v>
+        <v>1472.59</v>
       </c>
       <c r="CA26" s="1">
-        <v>-906.450000</v>
+        <v>-906.45</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>54370.508628</v>
+        <v>54370.508628000003</v>
       </c>
       <c r="CD26" s="1">
         <v>15.102919</v>
       </c>
       <c r="CE26" s="1">
-        <v>1828.690000</v>
+        <v>1828.69</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1408.840000</v>
+        <v>-1408.84</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>